--- a/Extractions/Refined Pokemon Roster.xlsx
+++ b/Extractions/Refined Pokemon Roster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L899"/>
+  <dimension ref="A1:K899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,6 @@
           <t>Weight (lbs)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Legendary Status</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -535,9 +530,6 @@
       <c r="K2" t="n">
         <v>15.21</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -579,9 +571,6 @@
       <c r="K3" t="n">
         <v>28.66</v>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -622,9 +611,6 @@
       </c>
       <c r="K4" t="n">
         <v>220.46</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -663,9 +649,6 @@
       <c r="K5" t="n">
         <v>18.74</v>
       </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -703,9 +686,6 @@
       <c r="K6" t="n">
         <v>41.89</v>
       </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -746,9 +726,6 @@
       </c>
       <c r="K7" t="n">
         <v>199.52</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -787,9 +764,6 @@
       <c r="K8" t="n">
         <v>19.84</v>
       </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -827,9 +801,6 @@
       <c r="K9" t="n">
         <v>49.6</v>
       </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -867,9 +838,6 @@
       <c r="K10" t="n">
         <v>188.5</v>
       </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -907,9 +875,6 @@
       <c r="K11" t="n">
         <v>6.39</v>
       </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -947,9 +912,6 @@
       <c r="K12" t="n">
         <v>21.83</v>
       </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -991,9 +953,6 @@
       <c r="K13" t="n">
         <v>70.55</v>
       </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1035,9 +994,6 @@
       <c r="K14" t="n">
         <v>7.05</v>
       </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1079,9 +1035,6 @@
       <c r="K15" t="n">
         <v>22.05</v>
       </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1123,9 +1076,6 @@
       <c r="K16" t="n">
         <v>65.04000000000001</v>
       </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1167,9 +1117,6 @@
       <c r="K17" t="n">
         <v>3.97</v>
       </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1211,9 +1158,6 @@
       <c r="K18" t="n">
         <v>66.14</v>
       </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1254,9 +1198,6 @@
       </c>
       <c r="K19" t="n">
         <v>87.08</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1295,9 +1236,6 @@
       <c r="K20" t="n">
         <v>7.72</v>
       </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1335,9 +1273,6 @@
       <c r="K21" t="n">
         <v>40.79</v>
       </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1379,9 +1314,6 @@
       <c r="K22" t="n">
         <v>4.41</v>
       </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1422,9 +1354,6 @@
       </c>
       <c r="K23" t="n">
         <v>83.78</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1463,9 +1392,6 @@
       <c r="K24" t="n">
         <v>15.21</v>
       </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1503,9 +1429,6 @@
       <c r="K25" t="n">
         <v>143.3</v>
       </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1543,9 +1466,6 @@
       <c r="K26" t="n">
         <v>13.23</v>
       </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1583,9 +1503,6 @@
       <c r="K27" t="n">
         <v>66.14</v>
       </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1623,9 +1540,6 @@
       <c r="K28" t="n">
         <v>26.46</v>
       </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1663,9 +1577,6 @@
       <c r="K29" t="n">
         <v>65.04000000000001</v>
       </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1703,9 +1614,6 @@
       <c r="K30" t="n">
         <v>15.43</v>
       </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1743,9 +1651,6 @@
       <c r="K31" t="n">
         <v>44.09</v>
       </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1786,9 +1691,6 @@
       </c>
       <c r="K32" t="n">
         <v>132.28</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1827,9 +1729,6 @@
       <c r="K33" t="n">
         <v>19.84</v>
       </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1867,9 +1766,6 @@
       <c r="K34" t="n">
         <v>42.99</v>
       </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1910,9 +1806,6 @@
       </c>
       <c r="K35" t="n">
         <v>136.69</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1951,9 +1844,6 @@
       <c r="K36" t="n">
         <v>16.53</v>
       </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1991,9 +1881,6 @@
       <c r="K37" t="n">
         <v>88.18000000000001</v>
       </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2031,9 +1918,6 @@
       <c r="K38" t="n">
         <v>21.83</v>
       </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2071,9 +1955,6 @@
       <c r="K39" t="n">
         <v>43.87</v>
       </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2115,9 +1996,6 @@
       <c r="K40" t="n">
         <v>12.13</v>
       </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2159,9 +2037,6 @@
       <c r="K41" t="n">
         <v>26.46</v>
       </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2203,9 +2078,6 @@
       <c r="K42" t="n">
         <v>16.53</v>
       </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2247,9 +2119,6 @@
       <c r="K43" t="n">
         <v>121.25</v>
       </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2291,9 +2160,6 @@
       <c r="K44" t="n">
         <v>11.9</v>
       </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2335,9 +2201,6 @@
       <c r="K45" t="n">
         <v>18.96</v>
       </c>
-      <c r="L45" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2379,9 +2242,6 @@
       <c r="K46" t="n">
         <v>41.01</v>
       </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2423,9 +2283,6 @@
       <c r="K47" t="n">
         <v>11.9</v>
       </c>
-      <c r="L47" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2467,9 +2324,6 @@
       <c r="K48" t="n">
         <v>65.04000000000001</v>
       </c>
-      <c r="L48" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2511,9 +2365,6 @@
       <c r="K49" t="n">
         <v>66.14</v>
       </c>
-      <c r="L49" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2554,9 +2405,6 @@
       </c>
       <c r="K50" t="n">
         <v>27.56</v>
-      </c>
-      <c r="L50" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2595,9 +2443,6 @@
       <c r="K51" t="n">
         <v>1.76</v>
       </c>
-      <c r="L51" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2635,9 +2480,6 @@
       <c r="K52" t="n">
         <v>73.41</v>
       </c>
-      <c r="L52" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2675,9 +2517,6 @@
       <c r="K53" t="n">
         <v>9.26</v>
       </c>
-      <c r="L53" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2715,9 +2554,6 @@
       <c r="K54" t="n">
         <v>70.55</v>
       </c>
-      <c r="L54" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2755,9 +2591,6 @@
       <c r="K55" t="n">
         <v>43.21</v>
       </c>
-      <c r="L55" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2795,9 +2628,6 @@
       <c r="K56" t="n">
         <v>168.87</v>
       </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2835,9 +2665,6 @@
       <c r="K57" t="n">
         <v>61.73</v>
       </c>
-      <c r="L57" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2875,9 +2702,6 @@
       <c r="K58" t="n">
         <v>70.55</v>
       </c>
-      <c r="L58" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2915,9 +2739,6 @@
       <c r="K59" t="n">
         <v>41.89</v>
       </c>
-      <c r="L59" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2955,9 +2776,6 @@
       <c r="K60" t="n">
         <v>341.72</v>
       </c>
-      <c r="L60" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2995,9 +2813,6 @@
       <c r="K61" t="n">
         <v>27.34</v>
       </c>
-      <c r="L61" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3035,9 +2850,6 @@
       <c r="K62" t="n">
         <v>44.09</v>
       </c>
-      <c r="L62" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3078,9 +2890,6 @@
       </c>
       <c r="K63" t="n">
         <v>119.05</v>
-      </c>
-      <c r="L63" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3119,9 +2928,6 @@
       <c r="K64" t="n">
         <v>42.99</v>
       </c>
-      <c r="L64" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3159,9 +2965,6 @@
       <c r="K65" t="n">
         <v>124.56</v>
       </c>
-      <c r="L65" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3199,9 +3002,6 @@
       <c r="K66" t="n">
         <v>105.82</v>
       </c>
-      <c r="L66" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3239,9 +3039,6 @@
       <c r="K67" t="n">
         <v>42.99</v>
       </c>
-      <c r="L67" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3279,9 +3076,6 @@
       <c r="K68" t="n">
         <v>155.43</v>
       </c>
-      <c r="L68" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3319,9 +3113,6 @@
       <c r="K69" t="n">
         <v>286.6</v>
       </c>
-      <c r="L69" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3363,9 +3154,6 @@
       <c r="K70" t="n">
         <v>8.82</v>
       </c>
-      <c r="L70" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3407,9 +3195,6 @@
       <c r="K71" t="n">
         <v>14.11</v>
       </c>
-      <c r="L71" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3451,9 +3236,6 @@
       <c r="K72" t="n">
         <v>34.17</v>
       </c>
-      <c r="L72" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3495,9 +3277,6 @@
       <c r="K73" t="n">
         <v>100.31</v>
       </c>
-      <c r="L73" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3539,9 +3318,6 @@
       <c r="K74" t="n">
         <v>121.25</v>
       </c>
-      <c r="L74" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3583,9 +3359,6 @@
       <c r="K75" t="n">
         <v>44.09</v>
       </c>
-      <c r="L75" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3627,9 +3400,6 @@
       <c r="K76" t="n">
         <v>231.49</v>
       </c>
-      <c r="L76" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3670,9 +3440,6 @@
       </c>
       <c r="K77" t="n">
         <v>661.39</v>
-      </c>
-      <c r="L77" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3711,9 +3478,6 @@
       <c r="K78" t="n">
         <v>66.14</v>
       </c>
-      <c r="L78" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3751,9 +3515,6 @@
       <c r="K79" t="n">
         <v>209.44</v>
       </c>
-      <c r="L79" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3795,9 +3556,6 @@
       <c r="K80" t="n">
         <v>79.37</v>
       </c>
-      <c r="L80" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3839,9 +3597,6 @@
       <c r="K81" t="n">
         <v>173.06</v>
       </c>
-      <c r="L81" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3883,9 +3638,6 @@
       <c r="K82" t="n">
         <v>13.23</v>
       </c>
-      <c r="L82" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3927,9 +3679,6 @@
       <c r="K83" t="n">
         <v>132.28</v>
       </c>
-      <c r="L83" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3971,9 +3720,6 @@
       <c r="K84" t="n">
         <v>33.07</v>
       </c>
-      <c r="L84" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4015,9 +3761,6 @@
       <c r="K85" t="n">
         <v>86.42</v>
       </c>
-      <c r="L85" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4058,9 +3801,6 @@
       </c>
       <c r="K86" t="n">
         <v>187.83</v>
-      </c>
-      <c r="L86" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -4099,9 +3839,6 @@
       <c r="K87" t="n">
         <v>198.42</v>
       </c>
-      <c r="L87" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4142,9 +3879,6 @@
       </c>
       <c r="K88" t="n">
         <v>264.55</v>
-      </c>
-      <c r="L88" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4183,9 +3917,6 @@
       <c r="K89" t="n">
         <v>66.14</v>
       </c>
-      <c r="L89" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4223,9 +3954,6 @@
       <c r="K90" t="n">
         <v>66.14</v>
       </c>
-      <c r="L90" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4263,9 +3991,6 @@
       <c r="K91" t="n">
         <v>8.82</v>
       </c>
-      <c r="L91" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4307,9 +4032,6 @@
       <c r="K92" t="n">
         <v>292.11</v>
       </c>
-      <c r="L92" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4351,9 +4073,6 @@
       <c r="K93" t="n">
         <v>0.22</v>
       </c>
-      <c r="L93" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4395,9 +4114,6 @@
       <c r="K94" t="n">
         <v>0.22</v>
       </c>
-      <c r="L94" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4439,9 +4155,6 @@
       <c r="K95" t="n">
         <v>89.29000000000001</v>
       </c>
-      <c r="L95" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4482,9 +4195,6 @@
       </c>
       <c r="K96" t="n">
         <v>462.97</v>
-      </c>
-      <c r="L96" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4523,9 +4233,6 @@
       <c r="K97" t="n">
         <v>71.43000000000001</v>
       </c>
-      <c r="L97" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4563,9 +4270,6 @@
       <c r="K98" t="n">
         <v>166.67</v>
       </c>
-      <c r="L98" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4603,9 +4307,6 @@
       <c r="K99" t="n">
         <v>14.33</v>
       </c>
-      <c r="L99" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4643,9 +4344,6 @@
       <c r="K100" t="n">
         <v>132.28</v>
       </c>
-      <c r="L100" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4683,9 +4381,6 @@
       <c r="K101" t="n">
         <v>22.93</v>
       </c>
-      <c r="L101" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4723,9 +4418,6 @@
       <c r="K102" t="n">
         <v>146.83</v>
       </c>
-      <c r="L102" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4767,9 +4459,6 @@
       <c r="K103" t="n">
         <v>5.51</v>
       </c>
-      <c r="L103" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4810,9 +4499,6 @@
       </c>
       <c r="K104" t="n">
         <v>264.55</v>
-      </c>
-      <c r="L104" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4851,9 +4537,6 @@
       <c r="K105" t="n">
         <v>14.33</v>
       </c>
-      <c r="L105" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4891,9 +4574,6 @@
       <c r="K106" t="n">
         <v>99.20999999999999</v>
       </c>
-      <c r="L106" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4931,9 +4611,6 @@
       <c r="K107" t="n">
         <v>109.79</v>
       </c>
-      <c r="L107" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4971,9 +4648,6 @@
       <c r="K108" t="n">
         <v>110.67</v>
       </c>
-      <c r="L108" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5011,9 +4685,6 @@
       <c r="K109" t="n">
         <v>144.4</v>
       </c>
-      <c r="L109" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5051,9 +4722,6 @@
       <c r="K110" t="n">
         <v>2.2</v>
       </c>
-      <c r="L110" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5091,9 +4759,6 @@
       <c r="K111" t="n">
         <v>20.94</v>
       </c>
-      <c r="L111" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5135,9 +4800,6 @@
       <c r="K112" t="n">
         <v>253.53</v>
       </c>
-      <c r="L112" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5178,9 +4840,6 @@
       </c>
       <c r="K113" t="n">
         <v>264.55</v>
-      </c>
-      <c r="L113" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -5219,9 +4878,6 @@
       <c r="K114" t="n">
         <v>76.28</v>
       </c>
-      <c r="L114" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5259,9 +4915,6 @@
       <c r="K115" t="n">
         <v>77.16</v>
       </c>
-      <c r="L115" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5299,9 +4952,6 @@
       <c r="K116" t="n">
         <v>176.37</v>
       </c>
-      <c r="L116" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5339,9 +4989,6 @@
       <c r="K117" t="n">
         <v>17.64</v>
       </c>
-      <c r="L117" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5379,9 +5026,6 @@
       <c r="K118" t="n">
         <v>55.12</v>
       </c>
-      <c r="L118" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5419,9 +5063,6 @@
       <c r="K119" t="n">
         <v>33.07</v>
       </c>
-      <c r="L119" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5459,9 +5100,6 @@
       <c r="K120" t="n">
         <v>85.98</v>
       </c>
-      <c r="L120" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5499,9 +5137,6 @@
       <c r="K121" t="n">
         <v>76.06</v>
       </c>
-      <c r="L121" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5543,9 +5178,6 @@
       <c r="K122" t="n">
         <v>176.37</v>
       </c>
-      <c r="L122" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5587,9 +5219,6 @@
       <c r="K123" t="n">
         <v>120.15</v>
       </c>
-      <c r="L123" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5631,9 +5260,6 @@
       <c r="K124" t="n">
         <v>123.46</v>
       </c>
-      <c r="L124" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5674,9 +5300,6 @@
       </c>
       <c r="K125" t="n">
         <v>89.51000000000001</v>
-      </c>
-      <c r="L125" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5715,9 +5338,6 @@
       <c r="K126" t="n">
         <v>66.14</v>
       </c>
-      <c r="L126" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5755,9 +5375,6 @@
       <c r="K127" t="n">
         <v>98.11</v>
       </c>
-      <c r="L127" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5795,9 +5412,6 @@
       <c r="K128" t="n">
         <v>121.25</v>
       </c>
-      <c r="L128" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5835,9 +5449,6 @@
       <c r="K129" t="n">
         <v>194.89</v>
       </c>
-      <c r="L129" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5875,9 +5486,6 @@
       <c r="K130" t="n">
         <v>22.05</v>
       </c>
-      <c r="L130" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5919,9 +5527,6 @@
       <c r="K131" t="n">
         <v>518.09</v>
       </c>
-      <c r="L131" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5962,9 +5567,6 @@
       </c>
       <c r="K132" t="n">
         <v>485.02</v>
-      </c>
-      <c r="L132" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -6003,9 +5605,6 @@
       <c r="K133" t="n">
         <v>8.82</v>
       </c>
-      <c r="L133" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6043,9 +5642,6 @@
       <c r="K134" t="n">
         <v>14.33</v>
       </c>
-      <c r="L134" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6083,9 +5679,6 @@
       <c r="K135" t="n">
         <v>63.93</v>
       </c>
-      <c r="L135" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6123,9 +5716,6 @@
       <c r="K136" t="n">
         <v>54.01</v>
       </c>
-      <c r="L136" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6163,9 +5753,6 @@
       <c r="K137" t="n">
         <v>55.12</v>
       </c>
-      <c r="L137" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6203,9 +5790,6 @@
       <c r="K138" t="n">
         <v>80.47</v>
       </c>
-      <c r="L138" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6247,9 +5831,6 @@
       <c r="K139" t="n">
         <v>16.53</v>
       </c>
-      <c r="L139" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6291,9 +5872,6 @@
       <c r="K140" t="n">
         <v>77.16</v>
       </c>
-      <c r="L140" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6335,9 +5913,6 @@
       <c r="K141" t="n">
         <v>25.35</v>
       </c>
-      <c r="L141" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6379,9 +5954,6 @@
       <c r="K142" t="n">
         <v>89.29000000000001</v>
       </c>
-      <c r="L142" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6422,9 +5994,6 @@
       </c>
       <c r="K143" t="n">
         <v>130.07</v>
-      </c>
-      <c r="L143" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6463,9 +6032,6 @@
       <c r="K144" t="n">
         <v>1014.13</v>
       </c>
-      <c r="L144" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6507,9 +6073,6 @@
       <c r="K145" t="n">
         <v>122.14</v>
       </c>
-      <c r="L145" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6551,9 +6114,6 @@
       <c r="K146" t="n">
         <v>115.96</v>
       </c>
-      <c r="L146" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6594,9 +6154,6 @@
       </c>
       <c r="K147" t="n">
         <v>132.28</v>
-      </c>
-      <c r="L147" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6635,9 +6192,6 @@
       <c r="K148" t="n">
         <v>7.28</v>
       </c>
-      <c r="L148" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6675,9 +6229,6 @@
       <c r="K149" t="n">
         <v>36.38</v>
       </c>
-      <c r="L149" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6718,9 +6269,6 @@
       </c>
       <c r="K150" t="n">
         <v>462.97</v>
-      </c>
-      <c r="L150" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6759,9 +6307,6 @@
       <c r="K151" t="n">
         <v>268.96</v>
       </c>
-      <c r="L151" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6799,9 +6344,6 @@
       <c r="K152" t="n">
         <v>8.82</v>
       </c>
-      <c r="L152" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6839,9 +6381,6 @@
       <c r="K153" t="n">
         <v>14.11</v>
       </c>
-      <c r="L153" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6879,9 +6418,6 @@
       <c r="K154" t="n">
         <v>34.83</v>
       </c>
-      <c r="L154" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6919,9 +6455,6 @@
       <c r="K155" t="n">
         <v>221.56</v>
       </c>
-      <c r="L155" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6959,9 +6492,6 @@
       <c r="K156" t="n">
         <v>17.42</v>
       </c>
-      <c r="L156" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6999,9 +6529,6 @@
       <c r="K157" t="n">
         <v>41.89</v>
       </c>
-      <c r="L157" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7039,9 +6566,6 @@
       <c r="K158" t="n">
         <v>175.27</v>
       </c>
-      <c r="L158" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7079,9 +6603,6 @@
       <c r="K159" t="n">
         <v>20.94</v>
       </c>
-      <c r="L159" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7119,9 +6640,6 @@
       <c r="K160" t="n">
         <v>55.12</v>
       </c>
-      <c r="L160" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7159,9 +6677,6 @@
       <c r="K161" t="n">
         <v>195.77</v>
       </c>
-      <c r="L161" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7199,9 +6714,6 @@
       <c r="K162" t="n">
         <v>13.23</v>
       </c>
-      <c r="L162" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7239,9 +6751,6 @@
       <c r="K163" t="n">
         <v>71.65000000000001</v>
       </c>
-      <c r="L163" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7283,9 +6792,6 @@
       <c r="K164" t="n">
         <v>46.74</v>
       </c>
-      <c r="L164" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7327,9 +6833,6 @@
       <c r="K165" t="n">
         <v>89.95</v>
       </c>
-      <c r="L165" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7371,9 +6874,6 @@
       <c r="K166" t="n">
         <v>23.81</v>
       </c>
-      <c r="L166" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7415,9 +6915,6 @@
       <c r="K167" t="n">
         <v>78.48</v>
       </c>
-      <c r="L167" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7459,9 +6956,6 @@
       <c r="K168" t="n">
         <v>18.74</v>
       </c>
-      <c r="L168" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7503,9 +6997,6 @@
       <c r="K169" t="n">
         <v>73.84999999999999</v>
       </c>
-      <c r="L169" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7547,9 +7038,6 @@
       <c r="K170" t="n">
         <v>165.35</v>
       </c>
-      <c r="L170" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7591,9 +7079,6 @@
       <c r="K171" t="n">
         <v>26.46</v>
       </c>
-      <c r="L171" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7634,9 +7119,6 @@
       </c>
       <c r="K172" t="n">
         <v>49.6</v>
-      </c>
-      <c r="L172" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -7675,9 +7157,6 @@
       <c r="K173" t="n">
         <v>4.41</v>
       </c>
-      <c r="L173" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7715,9 +7194,6 @@
       <c r="K174" t="n">
         <v>6.61</v>
       </c>
-      <c r="L174" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7758,9 +7234,6 @@
       </c>
       <c r="K175" t="n">
         <v>2.2</v>
-      </c>
-      <c r="L175" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -7799,9 +7272,6 @@
       <c r="K176" t="n">
         <v>3.31</v>
       </c>
-      <c r="L176" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7843,9 +7313,6 @@
       <c r="K177" t="n">
         <v>7.05</v>
       </c>
-      <c r="L177" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7887,9 +7354,6 @@
       <c r="K178" t="n">
         <v>4.41</v>
       </c>
-      <c r="L178" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7930,9 +7394,6 @@
       </c>
       <c r="K179" t="n">
         <v>33.07</v>
-      </c>
-      <c r="L179" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -7971,9 +7432,6 @@
       <c r="K180" t="n">
         <v>17.2</v>
       </c>
-      <c r="L180" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8011,9 +7469,6 @@
       <c r="K181" t="n">
         <v>29.32</v>
       </c>
-      <c r="L181" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8051,9 +7506,6 @@
       <c r="K182" t="n">
         <v>135.58</v>
       </c>
-      <c r="L182" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8091,9 +7543,6 @@
       <c r="K183" t="n">
         <v>12.79</v>
       </c>
-      <c r="L183" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8135,9 +7584,6 @@
       <c r="K184" t="n">
         <v>18.74</v>
       </c>
-      <c r="L184" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8178,9 +7624,6 @@
       </c>
       <c r="K185" t="n">
         <v>62.83</v>
-      </c>
-      <c r="L185" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -8219,9 +7662,6 @@
       <c r="K186" t="n">
         <v>83.78</v>
       </c>
-      <c r="L186" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8259,9 +7699,6 @@
       <c r="K187" t="n">
         <v>74.73999999999999</v>
       </c>
-      <c r="L187" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8303,9 +7740,6 @@
       <c r="K188" t="n">
         <v>1.1</v>
       </c>
-      <c r="L188" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8347,9 +7781,6 @@
       <c r="K189" t="n">
         <v>2.2</v>
       </c>
-      <c r="L189" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8390,9 +7821,6 @@
       </c>
       <c r="K190" t="n">
         <v>6.61</v>
-      </c>
-      <c r="L190" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -8431,9 +7859,6 @@
       <c r="K191" t="n">
         <v>25.35</v>
       </c>
-      <c r="L191" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8471,9 +7896,6 @@
       <c r="K192" t="n">
         <v>3.97</v>
       </c>
-      <c r="L192" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8511,9 +7933,6 @@
       <c r="K193" t="n">
         <v>18.74</v>
       </c>
-      <c r="L193" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8555,9 +7974,6 @@
       <c r="K194" t="n">
         <v>83.78</v>
       </c>
-      <c r="L194" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8599,9 +8015,6 @@
       <c r="K195" t="n">
         <v>18.74</v>
       </c>
-      <c r="L195" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8642,9 +8055,6 @@
       </c>
       <c r="K196" t="n">
         <v>165.35</v>
-      </c>
-      <c r="L196" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -8683,9 +8093,6 @@
       <c r="K197" t="n">
         <v>58.42</v>
       </c>
-      <c r="L197" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8723,9 +8130,6 @@
       <c r="K198" t="n">
         <v>59.52</v>
       </c>
-      <c r="L198" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8767,9 +8171,6 @@
       <c r="K199" t="n">
         <v>4.63</v>
       </c>
-      <c r="L199" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8810,9 +8211,6 @@
       </c>
       <c r="K200" t="n">
         <v>175.27</v>
-      </c>
-      <c r="L200" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -8851,9 +8249,6 @@
       <c r="K201" t="n">
         <v>2.2</v>
       </c>
-      <c r="L201" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8891,9 +8286,6 @@
       <c r="K202" t="n">
         <v>11.02</v>
       </c>
-      <c r="L202" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8931,9 +8323,6 @@
       <c r="K203" t="n">
         <v>62.83</v>
       </c>
-      <c r="L203" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8974,9 +8363,6 @@
       </c>
       <c r="K204" t="n">
         <v>91.48999999999999</v>
-      </c>
-      <c r="L204" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -9015,9 +8401,6 @@
       <c r="K205" t="n">
         <v>15.87</v>
       </c>
-      <c r="L205" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9058,9 +8441,6 @@
       </c>
       <c r="K206" t="n">
         <v>277.34</v>
-      </c>
-      <c r="L206" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -9099,9 +8479,6 @@
       <c r="K207" t="n">
         <v>30.86</v>
       </c>
-      <c r="L207" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9143,9 +8520,6 @@
       <c r="K208" t="n">
         <v>142.86</v>
       </c>
-      <c r="L208" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9186,9 +8560,6 @@
       </c>
       <c r="K209" t="n">
         <v>881.85</v>
-      </c>
-      <c r="L209" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -9227,9 +8598,6 @@
       <c r="K210" t="n">
         <v>17.2</v>
       </c>
-      <c r="L210" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9267,9 +8635,6 @@
       <c r="K211" t="n">
         <v>107.36</v>
       </c>
-      <c r="L211" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9311,9 +8676,6 @@
       <c r="K212" t="n">
         <v>8.6</v>
       </c>
-      <c r="L212" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9355,9 +8717,6 @@
       <c r="K213" t="n">
         <v>260.15</v>
       </c>
-      <c r="L213" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9399,9 +8758,6 @@
       <c r="K214" t="n">
         <v>45.19</v>
       </c>
-      <c r="L214" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9443,9 +8799,6 @@
       <c r="K215" t="n">
         <v>119.05</v>
       </c>
-      <c r="L215" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9486,9 +8839,6 @@
       </c>
       <c r="K216" t="n">
         <v>61.73</v>
-      </c>
-      <c r="L216" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -9527,9 +8877,6 @@
       <c r="K217" t="n">
         <v>19.4</v>
       </c>
-      <c r="L217" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9567,9 +8914,6 @@
       <c r="K218" t="n">
         <v>277.34</v>
       </c>
-      <c r="L218" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9607,9 +8951,6 @@
       <c r="K219" t="n">
         <v>77.16</v>
       </c>
-      <c r="L219" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9651,9 +8992,6 @@
       <c r="K220" t="n">
         <v>121.25</v>
       </c>
-      <c r="L220" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9695,9 +9033,6 @@
       <c r="K221" t="n">
         <v>14.33</v>
       </c>
-      <c r="L221" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9739,9 +9074,6 @@
       <c r="K222" t="n">
         <v>123.02</v>
       </c>
-      <c r="L222" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9782,9 +9114,6 @@
       </c>
       <c r="K223" t="n">
         <v>11.02</v>
-      </c>
-      <c r="L223" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -9823,9 +9152,6 @@
       <c r="K224" t="n">
         <v>26.46</v>
       </c>
-      <c r="L224" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9863,9 +9189,6 @@
       <c r="K225" t="n">
         <v>62.83</v>
       </c>
-      <c r="L225" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9907,9 +9230,6 @@
       <c r="K226" t="n">
         <v>35.27</v>
       </c>
-      <c r="L226" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9951,9 +9271,6 @@
       <c r="K227" t="n">
         <v>485.02</v>
       </c>
-      <c r="L227" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9995,9 +9312,6 @@
       <c r="K228" t="n">
         <v>111.33</v>
       </c>
-      <c r="L228" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10039,9 +9353,6 @@
       <c r="K229" t="n">
         <v>23.81</v>
       </c>
-      <c r="L229" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -10083,9 +9394,6 @@
       <c r="K230" t="n">
         <v>77.16</v>
       </c>
-      <c r="L230" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -10126,9 +9434,6 @@
       </c>
       <c r="K231" t="n">
         <v>335.1</v>
-      </c>
-      <c r="L231" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -10167,9 +9472,6 @@
       <c r="K232" t="n">
         <v>73.84999999999999</v>
       </c>
-      <c r="L232" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -10207,9 +9509,6 @@
       <c r="K233" t="n">
         <v>264.55</v>
       </c>
-      <c r="L233" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10247,9 +9546,6 @@
       <c r="K234" t="n">
         <v>71.65000000000001</v>
       </c>
-      <c r="L234" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10287,9 +9583,6 @@
       <c r="K235" t="n">
         <v>156.97</v>
       </c>
-      <c r="L235" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10327,9 +9620,6 @@
       <c r="K236" t="n">
         <v>127.87</v>
       </c>
-      <c r="L236" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10367,9 +9657,6 @@
       <c r="K237" t="n">
         <v>46.3</v>
       </c>
-      <c r="L237" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10407,9 +9694,6 @@
       <c r="K238" t="n">
         <v>105.82</v>
       </c>
-      <c r="L238" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10450,9 +9734,6 @@
       </c>
       <c r="K239" t="n">
         <v>13.23</v>
-      </c>
-      <c r="L239" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -10491,9 +9772,6 @@
       <c r="K240" t="n">
         <v>51.81</v>
       </c>
-      <c r="L240" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10531,9 +9809,6 @@
       <c r="K241" t="n">
         <v>47.18</v>
       </c>
-      <c r="L241" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10571,9 +9846,6 @@
       <c r="K242" t="n">
         <v>166.45</v>
       </c>
-      <c r="L242" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10611,9 +9883,6 @@
       <c r="K243" t="n">
         <v>103.18</v>
       </c>
-      <c r="L243" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10651,9 +9920,6 @@
       <c r="K244" t="n">
         <v>392.42</v>
       </c>
-      <c r="L244" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10691,9 +9957,6 @@
       <c r="K245" t="n">
         <v>436.51</v>
       </c>
-      <c r="L245" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10731,9 +9994,6 @@
       <c r="K246" t="n">
         <v>412.26</v>
       </c>
-      <c r="L246" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10775,9 +10035,6 @@
       <c r="K247" t="n">
         <v>158.73</v>
       </c>
-      <c r="L247" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10819,9 +10076,6 @@
       <c r="K248" t="n">
         <v>335.1</v>
       </c>
-      <c r="L248" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10863,9 +10117,6 @@
       <c r="K249" t="n">
         <v>445.33</v>
       </c>
-      <c r="L249" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10907,9 +10158,6 @@
       <c r="K250" t="n">
         <v>476.2</v>
       </c>
-      <c r="L250" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10951,9 +10199,6 @@
       <c r="K251" t="n">
         <v>438.72</v>
       </c>
-      <c r="L251" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -10994,9 +10239,6 @@
       </c>
       <c r="K252" t="n">
         <v>11.02</v>
-      </c>
-      <c r="L252" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -11035,9 +10277,6 @@
       <c r="K253" t="n">
         <v>11.02</v>
       </c>
-      <c r="L253" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -11075,9 +10314,6 @@
       <c r="K254" t="n">
         <v>47.62</v>
       </c>
-      <c r="L254" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11115,9 +10351,6 @@
       <c r="K255" t="n">
         <v>115.08</v>
       </c>
-      <c r="L255" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11155,9 +10388,6 @@
       <c r="K256" t="n">
         <v>5.51</v>
       </c>
-      <c r="L256" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -11199,9 +10429,6 @@
       <c r="K257" t="n">
         <v>42.99</v>
       </c>
-      <c r="L257" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11242,9 +10469,6 @@
       </c>
       <c r="K258" t="n">
         <v>114.64</v>
-      </c>
-      <c r="L258" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -11283,9 +10507,6 @@
       <c r="K259" t="n">
         <v>16.76</v>
       </c>
-      <c r="L259" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11327,9 +10548,6 @@
       <c r="K260" t="n">
         <v>61.73</v>
       </c>
-      <c r="L260" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11370,9 +10588,6 @@
       </c>
       <c r="K261" t="n">
         <v>180.56</v>
-      </c>
-      <c r="L261" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -11411,9 +10626,6 @@
       <c r="K262" t="n">
         <v>29.98</v>
       </c>
-      <c r="L262" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11451,9 +10663,6 @@
       <c r="K263" t="n">
         <v>81.56999999999999</v>
       </c>
-      <c r="L263" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11491,9 +10700,6 @@
       <c r="K264" t="n">
         <v>38.58</v>
       </c>
-      <c r="L264" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11531,9 +10737,6 @@
       <c r="K265" t="n">
         <v>71.65000000000001</v>
       </c>
-      <c r="L265" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11571,9 +10774,6 @@
       <c r="K266" t="n">
         <v>7.94</v>
       </c>
-      <c r="L266" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11611,9 +10811,6 @@
       <c r="K267" t="n">
         <v>22.05</v>
       </c>
-      <c r="L267" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11654,9 +10851,6 @@
       </c>
       <c r="K268" t="n">
         <v>62.61</v>
-      </c>
-      <c r="L268" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -11695,9 +10889,6 @@
       <c r="K269" t="n">
         <v>25.35</v>
       </c>
-      <c r="L269" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11739,9 +10930,6 @@
       <c r="K270" t="n">
         <v>69.67</v>
       </c>
-      <c r="L270" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11783,9 +10971,6 @@
       <c r="K271" t="n">
         <v>5.73</v>
       </c>
-      <c r="L271" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11827,9 +11012,6 @@
       <c r="K272" t="n">
         <v>71.65000000000001</v>
       </c>
-      <c r="L272" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11870,9 +11052,6 @@
       </c>
       <c r="K273" t="n">
         <v>121.25</v>
-      </c>
-      <c r="L273" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -11911,9 +11090,6 @@
       <c r="K274" t="n">
         <v>8.82</v>
       </c>
-      <c r="L274" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11955,9 +11131,6 @@
       <c r="K275" t="n">
         <v>61.73</v>
       </c>
-      <c r="L275" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -11999,9 +11172,6 @@
       <c r="K276" t="n">
         <v>131.4</v>
       </c>
-      <c r="L276" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -12043,9 +11213,6 @@
       <c r="K277" t="n">
         <v>5.07</v>
       </c>
-      <c r="L277" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -12087,9 +11254,6 @@
       <c r="K278" t="n">
         <v>43.65</v>
       </c>
-      <c r="L278" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12131,9 +11295,6 @@
       <c r="K279" t="n">
         <v>20.94</v>
       </c>
-      <c r="L279" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12175,9 +11336,6 @@
       <c r="K280" t="n">
         <v>61.73</v>
       </c>
-      <c r="L280" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -12219,9 +11377,6 @@
       <c r="K281" t="n">
         <v>14.55</v>
       </c>
-      <c r="L281" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12263,9 +11418,6 @@
       <c r="K282" t="n">
         <v>44.53</v>
       </c>
-      <c r="L282" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12307,9 +11459,6 @@
       <c r="K283" t="n">
         <v>106.7</v>
       </c>
-      <c r="L283" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12351,9 +11500,6 @@
       <c r="K284" t="n">
         <v>3.75</v>
       </c>
-      <c r="L284" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12394,9 +11540,6 @@
       </c>
       <c r="K285" t="n">
         <v>7.94</v>
-      </c>
-      <c r="L285" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -12435,9 +11578,6 @@
       <c r="K286" t="n">
         <v>9.92</v>
       </c>
-      <c r="L286" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12478,9 +11618,6 @@
       </c>
       <c r="K287" t="n">
         <v>86.42</v>
-      </c>
-      <c r="L287" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -12519,9 +11656,6 @@
       <c r="K288" t="n">
         <v>52.91</v>
       </c>
-      <c r="L288" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12559,9 +11693,6 @@
       <c r="K289" t="n">
         <v>102.51</v>
       </c>
-      <c r="L289" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12599,9 +11730,6 @@
       <c r="K290" t="n">
         <v>287.7</v>
       </c>
-      <c r="L290" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12643,9 +11771,6 @@
       <c r="K291" t="n">
         <v>12.13</v>
       </c>
-      <c r="L291" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12687,9 +11812,6 @@
       <c r="K292" t="n">
         <v>26.46</v>
       </c>
-      <c r="L292" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12730,9 +11852,6 @@
       </c>
       <c r="K293" t="n">
         <v>2.65</v>
-      </c>
-      <c r="L293" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -12771,9 +11890,6 @@
       <c r="K294" t="n">
         <v>35.94</v>
       </c>
-      <c r="L294" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12811,9 +11927,6 @@
       <c r="K295" t="n">
         <v>89.29000000000001</v>
       </c>
-      <c r="L295" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12851,9 +11964,6 @@
       <c r="K296" t="n">
         <v>185.19</v>
       </c>
-      <c r="L296" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12891,9 +12001,6 @@
       <c r="K297" t="n">
         <v>190.48</v>
       </c>
-      <c r="L297" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12931,9 +12038,6 @@
       <c r="K298" t="n">
         <v>559.53</v>
       </c>
-      <c r="L298" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12974,9 +12078,6 @@
       </c>
       <c r="K299" t="n">
         <v>4.41</v>
-      </c>
-      <c r="L299" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -13015,9 +12116,6 @@
       <c r="K300" t="n">
         <v>213.85</v>
       </c>
-      <c r="L300" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -13055,9 +12153,6 @@
       <c r="K301" t="n">
         <v>24.25</v>
       </c>
-      <c r="L301" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -13095,9 +12190,6 @@
       <c r="K302" t="n">
         <v>71.87</v>
       </c>
-      <c r="L302" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -13139,9 +12231,6 @@
       <c r="K303" t="n">
         <v>24.25</v>
       </c>
-      <c r="L303" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -13183,9 +12272,6 @@
       <c r="K304" t="n">
         <v>25.35</v>
       </c>
-      <c r="L304" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -13227,9 +12313,6 @@
       <c r="K305" t="n">
         <v>132.28</v>
       </c>
-      <c r="L305" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -13271,9 +12354,6 @@
       <c r="K306" t="n">
         <v>264.55</v>
       </c>
-      <c r="L306" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -13315,9 +12395,6 @@
       <c r="K307" t="n">
         <v>793.66</v>
       </c>
-      <c r="L307" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -13359,9 +12436,6 @@
       <c r="K308" t="n">
         <v>24.69</v>
       </c>
-      <c r="L308" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13402,9 +12476,6 @@
       </c>
       <c r="K309" t="n">
         <v>69.45</v>
-      </c>
-      <c r="L309" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -13443,9 +12514,6 @@
       <c r="K310" t="n">
         <v>33.51</v>
       </c>
-      <c r="L310" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -13483,9 +12551,6 @@
       <c r="K311" t="n">
         <v>88.63</v>
       </c>
-      <c r="L311" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13523,9 +12588,6 @@
       <c r="K312" t="n">
         <v>9.26</v>
       </c>
-      <c r="L312" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -13563,9 +12625,6 @@
       <c r="K313" t="n">
         <v>9.26</v>
       </c>
-      <c r="L313" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13603,9 +12662,6 @@
       <c r="K314" t="n">
         <v>39.02</v>
       </c>
-      <c r="L314" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13643,9 +12699,6 @@
       <c r="K315" t="n">
         <v>39.02</v>
       </c>
-      <c r="L315" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13686,9 +12739,6 @@
       </c>
       <c r="K316" t="n">
         <v>4.41</v>
-      </c>
-      <c r="L316" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -13727,9 +12777,6 @@
       <c r="K317" t="n">
         <v>22.71</v>
       </c>
-      <c r="L317" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13767,9 +12814,6 @@
       <c r="K318" t="n">
         <v>176.37</v>
       </c>
-      <c r="L318" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13811,9 +12855,6 @@
       <c r="K319" t="n">
         <v>45.86</v>
       </c>
-      <c r="L319" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13854,9 +12895,6 @@
       </c>
       <c r="K320" t="n">
         <v>195.77</v>
-      </c>
-      <c r="L320" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -13895,9 +12933,6 @@
       <c r="K321" t="n">
         <v>286.6</v>
       </c>
-      <c r="L321" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13935,9 +12970,6 @@
       <c r="K322" t="n">
         <v>877.4400000000001</v>
       </c>
-      <c r="L322" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13979,9 +13011,6 @@
       <c r="K323" t="n">
         <v>52.91</v>
       </c>
-      <c r="L323" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -14022,9 +13051,6 @@
       </c>
       <c r="K324" t="n">
         <v>485.02</v>
-      </c>
-      <c r="L324" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -14063,9 +13089,6 @@
       <c r="K325" t="n">
         <v>177.25</v>
       </c>
-      <c r="L325" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -14103,9 +13126,6 @@
       <c r="K326" t="n">
         <v>67.45999999999999</v>
       </c>
-      <c r="L326" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -14143,9 +13163,6 @@
       <c r="K327" t="n">
         <v>157.63</v>
       </c>
-      <c r="L327" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -14183,9 +13200,6 @@
       <c r="K328" t="n">
         <v>11.02</v>
       </c>
-      <c r="L328" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -14223,9 +13237,6 @@
       <c r="K329" t="n">
         <v>33.07</v>
       </c>
-      <c r="L329" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -14267,9 +13278,6 @@
       <c r="K330" t="n">
         <v>33.73</v>
       </c>
-      <c r="L330" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -14310,9 +13318,6 @@
       </c>
       <c r="K331" t="n">
         <v>180.78</v>
-      </c>
-      <c r="L331" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -14351,9 +13356,6 @@
       <c r="K332" t="n">
         <v>113.1</v>
       </c>
-      <c r="L332" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14395,9 +13397,6 @@
       <c r="K333" t="n">
         <v>170.64</v>
       </c>
-      <c r="L333" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -14439,9 +13438,6 @@
       <c r="K334" t="n">
         <v>2.65</v>
       </c>
-      <c r="L334" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14482,9 +13478,6 @@
       </c>
       <c r="K335" t="n">
         <v>45.42</v>
-      </c>
-      <c r="L335" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -14523,9 +13516,6 @@
       <c r="K336" t="n">
         <v>88.84999999999999</v>
       </c>
-      <c r="L336" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -14563,9 +13553,6 @@
       <c r="K337" t="n">
         <v>115.74</v>
       </c>
-      <c r="L337" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14607,9 +13594,6 @@
       <c r="K338" t="n">
         <v>370.38</v>
       </c>
-      <c r="L338" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -14651,9 +13635,6 @@
       <c r="K339" t="n">
         <v>339.51</v>
       </c>
-      <c r="L339" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14695,9 +13676,6 @@
       <c r="K340" t="n">
         <v>4.19</v>
       </c>
-      <c r="L340" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14738,9 +13716,6 @@
       </c>
       <c r="K341" t="n">
         <v>52.03</v>
-      </c>
-      <c r="L341" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -14779,9 +13754,6 @@
       <c r="K342" t="n">
         <v>25.35</v>
       </c>
-      <c r="L342" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14823,9 +13795,6 @@
       <c r="K343" t="n">
         <v>72.31</v>
       </c>
-      <c r="L343" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14867,9 +13836,6 @@
       <c r="K344" t="n">
         <v>47.4</v>
       </c>
-      <c r="L344" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14911,9 +13877,6 @@
       <c r="K345" t="n">
         <v>238.1</v>
       </c>
-      <c r="L345" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14955,9 +13918,6 @@
       <c r="K346" t="n">
         <v>52.47</v>
       </c>
-      <c r="L346" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -14999,9 +13959,6 @@
       <c r="K347" t="n">
         <v>133.16</v>
       </c>
-      <c r="L347" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -15043,9 +14000,6 @@
       <c r="K348" t="n">
         <v>27.56</v>
       </c>
-      <c r="L348" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -15086,9 +14040,6 @@
       </c>
       <c r="K349" t="n">
         <v>150.36</v>
-      </c>
-      <c r="L349" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -15127,9 +14078,6 @@
       <c r="K350" t="n">
         <v>16.31</v>
       </c>
-      <c r="L350" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -15167,9 +14115,6 @@
       <c r="K351" t="n">
         <v>357.15</v>
       </c>
-      <c r="L351" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -15207,9 +14152,6 @@
       <c r="K352" t="n">
         <v>1.76</v>
       </c>
-      <c r="L352" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -15247,9 +14189,6 @@
       <c r="K353" t="n">
         <v>48.5</v>
       </c>
-      <c r="L353" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -15287,9 +14226,6 @@
       <c r="K354" t="n">
         <v>5.07</v>
       </c>
-      <c r="L354" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -15327,9 +14263,6 @@
       <c r="K355" t="n">
         <v>27.56</v>
       </c>
-      <c r="L355" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -15367,9 +14300,6 @@
       <c r="K356" t="n">
         <v>33.07</v>
       </c>
-      <c r="L356" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -15407,9 +14337,6 @@
       <c r="K357" t="n">
         <v>67.45999999999999</v>
       </c>
-      <c r="L357" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -15450,9 +14377,6 @@
       </c>
       <c r="K358" t="n">
         <v>220.46</v>
-      </c>
-      <c r="L358" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -15491,9 +14415,6 @@
       <c r="K359" t="n">
         <v>2.2</v>
       </c>
-      <c r="L359" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -15531,9 +14452,6 @@
       <c r="K360" t="n">
         <v>103.62</v>
       </c>
-      <c r="L360" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -15571,9 +14489,6 @@
       <c r="K361" t="n">
         <v>30.86</v>
       </c>
-      <c r="L361" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -15611,9 +14526,6 @@
       <c r="K362" t="n">
         <v>37.04</v>
       </c>
-      <c r="L362" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -15651,9 +14563,6 @@
       <c r="K363" t="n">
         <v>565.49</v>
       </c>
-      <c r="L363" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -15695,9 +14604,6 @@
       <c r="K364" t="n">
         <v>87.08</v>
       </c>
-      <c r="L364" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -15739,9 +14645,6 @@
       <c r="K365" t="n">
         <v>193.12</v>
       </c>
-      <c r="L365" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15782,9 +14685,6 @@
       </c>
       <c r="K366" t="n">
         <v>332.02</v>
-      </c>
-      <c r="L366" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -15823,9 +14723,6 @@
       <c r="K367" t="n">
         <v>115.74</v>
       </c>
-      <c r="L367" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -15863,9 +14760,6 @@
       <c r="K368" t="n">
         <v>59.52</v>
       </c>
-      <c r="L368" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15903,9 +14797,6 @@
       <c r="K369" t="n">
         <v>49.82</v>
       </c>
-      <c r="L369" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -15946,9 +14837,6 @@
       </c>
       <c r="K370" t="n">
         <v>51.59</v>
-      </c>
-      <c r="L370" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -15987,9 +14875,6 @@
       <c r="K371" t="n">
         <v>19.18</v>
       </c>
-      <c r="L371" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -16027,9 +14912,6 @@
       <c r="K372" t="n">
         <v>92.81</v>
       </c>
-      <c r="L372" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -16067,9 +14949,6 @@
       <c r="K373" t="n">
         <v>243.61</v>
       </c>
-      <c r="L373" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -16111,9 +14990,6 @@
       <c r="K374" t="n">
         <v>226.19</v>
       </c>
-      <c r="L374" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -16155,9 +15031,6 @@
       <c r="K375" t="n">
         <v>209.88</v>
       </c>
-      <c r="L375" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -16199,9 +15072,6 @@
       <c r="K376" t="n">
         <v>446.44</v>
       </c>
-      <c r="L376" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -16242,9 +15112,6 @@
       </c>
       <c r="K377" t="n">
         <v>1212.54</v>
-      </c>
-      <c r="L377" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -16283,9 +15150,6 @@
       <c r="K378" t="n">
         <v>507.06</v>
       </c>
-      <c r="L378" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -16323,9 +15187,6 @@
       <c r="K379" t="n">
         <v>385.81</v>
       </c>
-      <c r="L379" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -16363,9 +15224,6 @@
       <c r="K380" t="n">
         <v>451.95</v>
       </c>
-      <c r="L380" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -16407,9 +15265,6 @@
       <c r="K381" t="n">
         <v>88.18000000000001</v>
       </c>
-      <c r="L381" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16450,9 +15305,6 @@
       </c>
       <c r="K382" t="n">
         <v>132.28</v>
-      </c>
-      <c r="L382" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -16491,9 +15343,6 @@
       <c r="K383" t="n">
         <v>776.03</v>
       </c>
-      <c r="L383" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16531,9 +15380,6 @@
       <c r="K384" t="n">
         <v>2094.39</v>
       </c>
-      <c r="L384" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -16575,9 +15421,6 @@
       <c r="K385" t="n">
         <v>455.25</v>
       </c>
-      <c r="L385" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -16618,9 +15461,6 @@
       </c>
       <c r="K386" t="n">
         <v>2.43</v>
-      </c>
-      <c r="L386" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -16659,9 +15499,6 @@
       <c r="K387" t="n">
         <v>134.04</v>
       </c>
-      <c r="L387" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -16699,9 +15536,6 @@
       <c r="K388" t="n">
         <v>22.49</v>
       </c>
-      <c r="L388" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -16739,9 +15573,6 @@
       <c r="K389" t="n">
         <v>213.85</v>
       </c>
-      <c r="L389" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16782,9 +15613,6 @@
       </c>
       <c r="K390" t="n">
         <v>683.4299999999999</v>
-      </c>
-      <c r="L390" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -16823,9 +15651,6 @@
       <c r="K391" t="n">
         <v>13.67</v>
       </c>
-      <c r="L391" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -16867,9 +15692,6 @@
       <c r="K392" t="n">
         <v>48.5</v>
       </c>
-      <c r="L392" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -16910,9 +15732,6 @@
       </c>
       <c r="K393" t="n">
         <v>121.25</v>
-      </c>
-      <c r="L393" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -16951,9 +15770,6 @@
       <c r="K394" t="n">
         <v>11.46</v>
       </c>
-      <c r="L394" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -16991,9 +15807,6 @@
       <c r="K395" t="n">
         <v>50.71</v>
       </c>
-      <c r="L395" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -17035,9 +15848,6 @@
       <c r="K396" t="n">
         <v>186.29</v>
       </c>
-      <c r="L396" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -17079,9 +15889,6 @@
       <c r="K397" t="n">
         <v>4.41</v>
       </c>
-      <c r="L397" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -17123,9 +15930,6 @@
       <c r="K398" t="n">
         <v>34.17</v>
       </c>
-      <c r="L398" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -17166,9 +15970,6 @@
       </c>
       <c r="K399" t="n">
         <v>54.9</v>
-      </c>
-      <c r="L399" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -17207,9 +16008,6 @@
       <c r="K400" t="n">
         <v>44.09</v>
       </c>
-      <c r="L400" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -17250,9 +16048,6 @@
       </c>
       <c r="K401" t="n">
         <v>69.45</v>
-      </c>
-      <c r="L401" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -17291,9 +16086,6 @@
       <c r="K402" t="n">
         <v>4.85</v>
       </c>
-      <c r="L402" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -17331,9 +16123,6 @@
       <c r="K403" t="n">
         <v>56.22</v>
       </c>
-      <c r="L403" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -17371,9 +16160,6 @@
       <c r="K404" t="n">
         <v>20.94</v>
       </c>
-      <c r="L404" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -17411,9 +16197,6 @@
       <c r="K405" t="n">
         <v>67.23999999999999</v>
       </c>
-      <c r="L405" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -17451,9 +16234,6 @@
       <c r="K406" t="n">
         <v>92.59</v>
       </c>
-      <c r="L406" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -17495,9 +16275,6 @@
       <c r="K407" t="n">
         <v>2.65</v>
       </c>
-      <c r="L407" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -17538,9 +16315,6 @@
       </c>
       <c r="K408" t="n">
         <v>31.97</v>
-      </c>
-      <c r="L408" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -17579,9 +16353,6 @@
       <c r="K409" t="n">
         <v>69.45</v>
       </c>
-      <c r="L409" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -17619,9 +16390,6 @@
       <c r="K410" t="n">
         <v>225.97</v>
       </c>
-      <c r="L410" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -17663,9 +16431,6 @@
       <c r="K411" t="n">
         <v>125.66</v>
       </c>
-      <c r="L411" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -17706,9 +16471,6 @@
       </c>
       <c r="K412" t="n">
         <v>329.59</v>
-      </c>
-      <c r="L412" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -17747,9 +16509,6 @@
       <c r="K413" t="n">
         <v>7.5</v>
       </c>
-      <c r="L413" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -17791,9 +16550,6 @@
       <c r="K414" t="n">
         <v>14.33</v>
       </c>
-      <c r="L414" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -17835,9 +16591,6 @@
       <c r="K415" t="n">
         <v>51.37</v>
       </c>
-      <c r="L415" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -17879,9 +16632,6 @@
       <c r="K416" t="n">
         <v>12.13</v>
       </c>
-      <c r="L416" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -17922,9 +16672,6 @@
       </c>
       <c r="K417" t="n">
         <v>84.88</v>
-      </c>
-      <c r="L417" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -17963,9 +16710,6 @@
       <c r="K418" t="n">
         <v>8.6</v>
       </c>
-      <c r="L418" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -18003,9 +16747,6 @@
       <c r="K419" t="n">
         <v>65.04000000000001</v>
       </c>
-      <c r="L419" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -18043,9 +16784,6 @@
       <c r="K420" t="n">
         <v>73.84999999999999</v>
       </c>
-      <c r="L420" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -18083,9 +16821,6 @@
       <c r="K421" t="n">
         <v>7.28</v>
       </c>
-      <c r="L421" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -18123,9 +16858,6 @@
       <c r="K422" t="n">
         <v>20.5</v>
       </c>
-      <c r="L422" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -18163,9 +16895,6 @@
       <c r="K423" t="n">
         <v>13.89</v>
       </c>
-      <c r="L423" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -18206,9 +16935,6 @@
       </c>
       <c r="K424" t="n">
         <v>65.92</v>
-      </c>
-      <c r="L424" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -18247,9 +16973,6 @@
       <c r="K425" t="n">
         <v>44.75</v>
       </c>
-      <c r="L425" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -18291,9 +17014,6 @@
       <c r="K426" t="n">
         <v>2.65</v>
       </c>
-      <c r="L426" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -18334,9 +17054,6 @@
       </c>
       <c r="K427" t="n">
         <v>33.07</v>
-      </c>
-      <c r="L427" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -18375,9 +17092,6 @@
       <c r="K428" t="n">
         <v>12.13</v>
       </c>
-      <c r="L428" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -18415,9 +17129,6 @@
       <c r="K429" t="n">
         <v>73.41</v>
       </c>
-      <c r="L429" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -18455,9 +17166,6 @@
       <c r="K430" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="L430" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -18498,9 +17206,6 @@
       </c>
       <c r="K431" t="n">
         <v>60.19</v>
-      </c>
-      <c r="L431" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -18539,9 +17244,6 @@
       <c r="K432" t="n">
         <v>8.6</v>
       </c>
-      <c r="L432" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -18579,9 +17281,6 @@
       <c r="K433" t="n">
         <v>96.56</v>
       </c>
-      <c r="L433" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -18619,9 +17318,6 @@
       <c r="K434" t="n">
         <v>1.32</v>
       </c>
-      <c r="L434" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -18663,9 +17359,6 @@
       <c r="K435" t="n">
         <v>42.33</v>
       </c>
-      <c r="L435" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -18707,9 +17400,6 @@
       <c r="K436" t="n">
         <v>83.78</v>
       </c>
-      <c r="L436" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -18751,9 +17441,6 @@
       <c r="K437" t="n">
         <v>133.38</v>
       </c>
-      <c r="L437" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -18794,9 +17481,6 @@
       </c>
       <c r="K438" t="n">
         <v>412.26</v>
-      </c>
-      <c r="L438" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -18835,9 +17519,6 @@
       <c r="K439" t="n">
         <v>33.07</v>
       </c>
-      <c r="L439" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -18878,9 +17559,6 @@
       </c>
       <c r="K440" t="n">
         <v>28.66</v>
-      </c>
-      <c r="L440" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -18919,9 +17597,6 @@
       <c r="K441" t="n">
         <v>53.79</v>
       </c>
-      <c r="L441" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -18963,9 +17638,6 @@
       <c r="K442" t="n">
         <v>4.19</v>
       </c>
-      <c r="L442" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -19007,9 +17679,6 @@
       <c r="K443" t="n">
         <v>238.1</v>
       </c>
-      <c r="L443" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -19051,9 +17720,6 @@
       <c r="K444" t="n">
         <v>45.19</v>
       </c>
-      <c r="L444" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -19095,9 +17761,6 @@
       <c r="K445" t="n">
         <v>123.46</v>
       </c>
-      <c r="L445" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -19138,9 +17801,6 @@
       </c>
       <c r="K446" t="n">
         <v>209.44</v>
-      </c>
-      <c r="L446" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -19179,9 +17839,6 @@
       <c r="K447" t="n">
         <v>231.49</v>
       </c>
-      <c r="L447" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -19219,9 +17876,6 @@
       <c r="K448" t="n">
         <v>44.53</v>
       </c>
-      <c r="L448" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -19262,9 +17916,6 @@
       </c>
       <c r="K449" t="n">
         <v>119.05</v>
-      </c>
-      <c r="L449" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -19303,9 +17954,6 @@
       <c r="K450" t="n">
         <v>109.13</v>
       </c>
-      <c r="L450" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -19343,9 +17991,6 @@
       <c r="K451" t="n">
         <v>661.39</v>
       </c>
-      <c r="L451" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -19387,9 +18032,6 @@
       <c r="K452" t="n">
         <v>26.46</v>
       </c>
-      <c r="L452" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -19431,9 +18073,6 @@
       <c r="K453" t="n">
         <v>135.58</v>
       </c>
-      <c r="L453" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -19475,9 +18114,6 @@
       <c r="K454" t="n">
         <v>50.71</v>
       </c>
-      <c r="L454" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -19518,9 +18154,6 @@
       </c>
       <c r="K455" t="n">
         <v>97.89</v>
-      </c>
-      <c r="L455" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -19559,9 +18192,6 @@
       <c r="K456" t="n">
         <v>59.52</v>
       </c>
-      <c r="L456" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -19599,9 +18229,6 @@
       <c r="K457" t="n">
         <v>15.43</v>
       </c>
-      <c r="L457" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -19639,9 +18266,6 @@
       <c r="K458" t="n">
         <v>52.91</v>
       </c>
-      <c r="L458" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -19683,9 +18307,6 @@
       <c r="K459" t="n">
         <v>143.3</v>
       </c>
-      <c r="L459" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -19727,9 +18348,6 @@
       <c r="K460" t="n">
         <v>111.33</v>
       </c>
-      <c r="L460" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -19771,9 +18389,6 @@
       <c r="K461" t="n">
         <v>298.73</v>
       </c>
-      <c r="L461" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -19815,9 +18430,6 @@
       <c r="K462" t="n">
         <v>74.95999999999999</v>
       </c>
-      <c r="L462" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -19858,9 +18470,6 @@
       </c>
       <c r="K463" t="n">
         <v>396.83</v>
-      </c>
-      <c r="L463" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -19899,9 +18508,6 @@
       <c r="K464" t="n">
         <v>308.65</v>
       </c>
-      <c r="L464" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -19942,9 +18548,6 @@
       </c>
       <c r="K465" t="n">
         <v>623.47</v>
-      </c>
-      <c r="L465" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -19983,9 +18586,6 @@
       <c r="K466" t="n">
         <v>283.51</v>
       </c>
-      <c r="L466" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -20023,9 +18623,6 @@
       <c r="K467" t="n">
         <v>305.56</v>
       </c>
-      <c r="L467" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -20063,9 +18660,6 @@
       <c r="K468" t="n">
         <v>149.91</v>
       </c>
-      <c r="L468" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -20107,9 +18701,6 @@
       <c r="K469" t="n">
         <v>83.78</v>
       </c>
-      <c r="L469" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -20150,9 +18741,6 @@
       </c>
       <c r="K470" t="n">
         <v>113.54</v>
-      </c>
-      <c r="L470" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -20191,9 +18779,6 @@
       <c r="K471" t="n">
         <v>56.22</v>
       </c>
-      <c r="L471" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -20231,9 +18816,6 @@
       <c r="K472" t="n">
         <v>57.1</v>
       </c>
-      <c r="L472" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -20275,9 +18857,6 @@
       <c r="K473" t="n">
         <v>93.7</v>
       </c>
-      <c r="L473" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -20318,9 +18897,6 @@
       </c>
       <c r="K474" t="n">
         <v>641.54</v>
-      </c>
-      <c r="L474" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -20359,9 +18935,6 @@
       <c r="K475" t="n">
         <v>74.95999999999999</v>
       </c>
-      <c r="L475" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -20403,9 +18976,6 @@
       <c r="K476" t="n">
         <v>114.64</v>
       </c>
-      <c r="L476" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -20446,9 +19016,6 @@
       </c>
       <c r="K477" t="n">
         <v>749.5700000000001</v>
-      </c>
-      <c r="L477" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -20487,9 +19054,6 @@
       <c r="K478" t="n">
         <v>235.01</v>
       </c>
-      <c r="L478" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -20531,9 +19095,6 @@
       <c r="K479" t="n">
         <v>58.64</v>
       </c>
-      <c r="L479" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -20574,9 +19135,6 @@
       </c>
       <c r="K480" t="n">
         <v>0.66</v>
-      </c>
-      <c r="L480" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -20615,9 +19173,6 @@
       <c r="K481" t="n">
         <v>0.66</v>
       </c>
-      <c r="L481" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -20655,9 +19210,6 @@
       <c r="K482" t="n">
         <v>0.66</v>
       </c>
-      <c r="L482" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -20695,9 +19247,6 @@
       <c r="K483" t="n">
         <v>0.66</v>
       </c>
-      <c r="L483" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -20739,9 +19288,6 @@
       <c r="K484" t="n">
         <v>1505.76</v>
       </c>
-      <c r="L484" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -20783,9 +19329,6 @@
       <c r="K485" t="n">
         <v>740.75</v>
       </c>
-      <c r="L485" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -20826,9 +19369,6 @@
       </c>
       <c r="K486" t="n">
         <v>947.99</v>
-      </c>
-      <c r="L486" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -20867,9 +19407,6 @@
       <c r="K487" t="n">
         <v>925.9400000000001</v>
       </c>
-      <c r="L487" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -20910,9 +19447,6 @@
       </c>
       <c r="K488" t="n">
         <v>1653.46</v>
-      </c>
-      <c r="L488" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -20951,9 +19485,6 @@
       <c r="K489" t="n">
         <v>188.72</v>
       </c>
-      <c r="L489" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -20991,9 +19522,6 @@
       <c r="K490" t="n">
         <v>6.83</v>
       </c>
-      <c r="L490" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -21031,9 +19559,6 @@
       <c r="K491" t="n">
         <v>3.09</v>
       </c>
-      <c r="L491" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -21071,9 +19596,6 @@
       <c r="K492" t="n">
         <v>111.33</v>
       </c>
-      <c r="L492" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -21111,9 +19633,6 @@
       <c r="K493" t="n">
         <v>4.63</v>
       </c>
-      <c r="L493" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -21151,9 +19670,6 @@
       <c r="K494" t="n">
         <v>705.48</v>
       </c>
-      <c r="L494" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -21194,9 +19710,6 @@
       </c>
       <c r="K495" t="n">
         <v>8.82</v>
-      </c>
-      <c r="L495" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -21235,9 +19748,6 @@
       <c r="K496" t="n">
         <v>17.86</v>
       </c>
-      <c r="L496" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -21275,9 +19785,6 @@
       <c r="K497" t="n">
         <v>35.27</v>
       </c>
-      <c r="L497" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -21315,9 +19822,6 @@
       <c r="K498" t="n">
         <v>138.89</v>
       </c>
-      <c r="L498" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -21355,9 +19859,6 @@
       <c r="K499" t="n">
         <v>21.83</v>
       </c>
-      <c r="L499" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -21399,9 +19900,6 @@
       <c r="K500" t="n">
         <v>122.36</v>
       </c>
-      <c r="L500" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -21442,9 +19940,6 @@
       </c>
       <c r="K501" t="n">
         <v>330.69</v>
-      </c>
-      <c r="L501" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -21483,9 +19978,6 @@
       <c r="K502" t="n">
         <v>13.01</v>
       </c>
-      <c r="L502" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -21523,9 +20015,6 @@
       <c r="K503" t="n">
         <v>54.01</v>
       </c>
-      <c r="L503" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -21563,9 +20052,6 @@
       <c r="K504" t="n">
         <v>208.56</v>
       </c>
-      <c r="L504" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -21603,9 +20089,6 @@
       <c r="K505" t="n">
         <v>25.57</v>
       </c>
-      <c r="L505" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -21643,9 +20126,6 @@
       <c r="K506" t="n">
         <v>59.52</v>
       </c>
-      <c r="L506" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -21683,9 +20163,6 @@
       <c r="K507" t="n">
         <v>9.039999999999999</v>
       </c>
-      <c r="L507" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -21723,9 +20200,6 @@
       <c r="K508" t="n">
         <v>32.41</v>
       </c>
-      <c r="L508" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -21763,9 +20237,6 @@
       <c r="K509" t="n">
         <v>134.48</v>
       </c>
-      <c r="L509" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -21803,9 +20274,6 @@
       <c r="K510" t="n">
         <v>22.27</v>
       </c>
-      <c r="L510" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -21843,9 +20311,6 @@
       <c r="K511" t="n">
         <v>82.67</v>
       </c>
-      <c r="L511" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -21883,9 +20348,6 @@
       <c r="K512" t="n">
         <v>23.15</v>
       </c>
-      <c r="L512" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -21923,9 +20385,6 @@
       <c r="K513" t="n">
         <v>67.23999999999999</v>
       </c>
-      <c r="L513" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -21963,9 +20422,6 @@
       <c r="K514" t="n">
         <v>24.25</v>
       </c>
-      <c r="L514" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -22003,9 +20459,6 @@
       <c r="K515" t="n">
         <v>61.73</v>
       </c>
-      <c r="L515" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -22043,9 +20496,6 @@
       <c r="K516" t="n">
         <v>29.76</v>
       </c>
-      <c r="L516" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -22083,9 +20533,6 @@
       <c r="K517" t="n">
         <v>63.93</v>
       </c>
-      <c r="L517" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -22123,9 +20570,6 @@
       <c r="K518" t="n">
         <v>51.37</v>
       </c>
-      <c r="L518" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -22163,9 +20607,6 @@
       <c r="K519" t="n">
         <v>133.38</v>
       </c>
-      <c r="L519" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -22207,9 +20648,6 @@
       <c r="K520" t="n">
         <v>4.63</v>
       </c>
-      <c r="L520" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -22251,9 +20689,6 @@
       <c r="K521" t="n">
         <v>33.07</v>
       </c>
-      <c r="L521" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -22294,9 +20729,6 @@
       </c>
       <c r="K522" t="n">
         <v>63.93</v>
-      </c>
-      <c r="L522" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -22335,9 +20767,6 @@
       <c r="K523" t="n">
         <v>65.7</v>
       </c>
-      <c r="L523" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -22375,9 +20804,6 @@
       <c r="K524" t="n">
         <v>175.27</v>
       </c>
-      <c r="L524" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -22415,9 +20841,6 @@
       <c r="K525" t="n">
         <v>39.68</v>
       </c>
-      <c r="L525" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -22455,9 +20878,6 @@
       <c r="K526" t="n">
         <v>224.87</v>
       </c>
-      <c r="L526" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -22495,9 +20915,6 @@
       <c r="K527" t="n">
         <v>573.2</v>
       </c>
-      <c r="L527" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -22539,9 +20956,6 @@
       <c r="K528" t="n">
         <v>4.63</v>
       </c>
-      <c r="L528" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -22582,9 +20996,6 @@
       </c>
       <c r="K529" t="n">
         <v>23.15</v>
-      </c>
-      <c r="L529" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -22623,9 +21034,6 @@
       <c r="K530" t="n">
         <v>18.74</v>
       </c>
-      <c r="L530" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -22666,9 +21074,6 @@
       </c>
       <c r="K531" t="n">
         <v>89.06999999999999</v>
-      </c>
-      <c r="L531" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -22707,9 +21112,6 @@
       <c r="K532" t="n">
         <v>68.34</v>
       </c>
-      <c r="L532" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -22747,9 +21149,6 @@
       <c r="K533" t="n">
         <v>27.56</v>
       </c>
-      <c r="L533" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -22787,9 +21186,6 @@
       <c r="K534" t="n">
         <v>88.18000000000001</v>
       </c>
-      <c r="L534" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -22827,9 +21223,6 @@
       <c r="K535" t="n">
         <v>191.8</v>
       </c>
-      <c r="L535" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -22867,9 +21260,6 @@
       <c r="K536" t="n">
         <v>9.92</v>
       </c>
-      <c r="L536" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -22911,9 +21301,6 @@
       <c r="K537" t="n">
         <v>37.48</v>
       </c>
-      <c r="L537" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -22954,9 +21341,6 @@
       </c>
       <c r="K538" t="n">
         <v>136.69</v>
-      </c>
-      <c r="L538" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -22995,9 +21379,6 @@
       <c r="K539" t="n">
         <v>122.36</v>
       </c>
-      <c r="L539" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -23035,9 +21416,6 @@
       <c r="K540" t="n">
         <v>112.44</v>
       </c>
-      <c r="L540" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -23079,9 +21457,6 @@
       <c r="K541" t="n">
         <v>5.51</v>
       </c>
-      <c r="L541" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -23123,9 +21498,6 @@
       <c r="K542" t="n">
         <v>16.09</v>
       </c>
-      <c r="L542" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -23167,9 +21539,6 @@
       <c r="K543" t="n">
         <v>45.19</v>
       </c>
-      <c r="L543" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -23211,9 +21580,6 @@
       <c r="K544" t="n">
         <v>11.68</v>
       </c>
-      <c r="L544" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -23255,9 +21621,6 @@
       <c r="K545" t="n">
         <v>128.97</v>
       </c>
-      <c r="L545" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -23299,9 +21662,6 @@
       <c r="K546" t="n">
         <v>442.03</v>
       </c>
-      <c r="L546" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -23343,9 +21703,6 @@
       <c r="K547" t="n">
         <v>1.32</v>
       </c>
-      <c r="L547" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -23386,9 +21743,6 @@
       </c>
       <c r="K548" t="n">
         <v>14.55</v>
-      </c>
-      <c r="L548" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -23427,9 +21781,6 @@
       <c r="K549" t="n">
         <v>14.55</v>
       </c>
-      <c r="L549" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -23467,9 +21818,6 @@
       <c r="K550" t="n">
         <v>35.94</v>
       </c>
-      <c r="L550" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -23507,9 +21855,6 @@
       <c r="K551" t="n">
         <v>39.68</v>
       </c>
-      <c r="L551" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -23551,9 +21896,6 @@
       <c r="K552" t="n">
         <v>33.51</v>
       </c>
-      <c r="L552" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -23595,9 +21937,6 @@
       <c r="K553" t="n">
         <v>73.63</v>
       </c>
-      <c r="L553" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -23638,9 +21977,6 @@
       </c>
       <c r="K554" t="n">
         <v>212.3</v>
-      </c>
-      <c r="L554" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -23679,9 +22015,6 @@
       <c r="K555" t="n">
         <v>82.67</v>
       </c>
-      <c r="L555" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -23719,9 +22052,6 @@
       <c r="K556" t="n">
         <v>204.81</v>
       </c>
-      <c r="L556" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -23759,9 +22089,6 @@
       <c r="K557" t="n">
         <v>61.73</v>
       </c>
-      <c r="L557" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -23803,9 +22130,6 @@
       <c r="K558" t="n">
         <v>31.97</v>
       </c>
-      <c r="L558" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -23847,9 +22171,6 @@
       <c r="K559" t="n">
         <v>440.92</v>
       </c>
-      <c r="L559" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -23891,9 +22212,6 @@
       <c r="K560" t="n">
         <v>26.01</v>
       </c>
-      <c r="L560" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -23935,9 +22253,6 @@
       <c r="K561" t="n">
         <v>66.14</v>
       </c>
-      <c r="L561" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -23978,9 +22293,6 @@
       </c>
       <c r="K562" t="n">
         <v>30.86</v>
-      </c>
-      <c r="L562" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -24019,9 +22331,6 @@
       <c r="K563" t="n">
         <v>3.31</v>
       </c>
-      <c r="L563" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -24059,9 +22368,6 @@
       <c r="K564" t="n">
         <v>168.65</v>
       </c>
-      <c r="L564" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -24103,9 +22409,6 @@
       <c r="K565" t="n">
         <v>36.38</v>
       </c>
-      <c r="L565" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -24147,9 +22450,6 @@
       <c r="K566" t="n">
         <v>178.57</v>
       </c>
-      <c r="L566" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -24191,9 +22491,6 @@
       <c r="K567" t="n">
         <v>20.94</v>
       </c>
-      <c r="L567" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -24234,9 +22531,6 @@
       </c>
       <c r="K568" t="n">
         <v>70.55</v>
-      </c>
-      <c r="L568" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -24275,9 +22569,6 @@
       <c r="K569" t="n">
         <v>68.34</v>
       </c>
-      <c r="L569" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -24315,9 +22606,6 @@
       <c r="K570" t="n">
         <v>236.56</v>
       </c>
-      <c r="L570" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -24355,9 +22643,6 @@
       <c r="K571" t="n">
         <v>27.56</v>
       </c>
-      <c r="L571" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -24395,9 +22680,6 @@
       <c r="K572" t="n">
         <v>178.79</v>
       </c>
-      <c r="L572" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -24435,9 +22717,6 @@
       <c r="K573" t="n">
         <v>12.79</v>
       </c>
-      <c r="L573" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -24475,9 +22754,6 @@
       <c r="K574" t="n">
         <v>16.53</v>
       </c>
-      <c r="L574" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -24515,9 +22791,6 @@
       <c r="K575" t="n">
         <v>12.79</v>
       </c>
-      <c r="L575" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -24555,9 +22828,6 @@
       <c r="K576" t="n">
         <v>39.68</v>
       </c>
-      <c r="L576" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -24595,9 +22865,6 @@
       <c r="K577" t="n">
         <v>97</v>
       </c>
-      <c r="L577" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -24635,9 +22902,6 @@
       <c r="K578" t="n">
         <v>2.2</v>
       </c>
-      <c r="L578" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -24675,9 +22939,6 @@
       <c r="K579" t="n">
         <v>17.64</v>
       </c>
-      <c r="L579" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -24715,9 +22976,6 @@
       <c r="K580" t="n">
         <v>44.31</v>
       </c>
-      <c r="L580" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -24759,9 +23017,6 @@
       <c r="K581" t="n">
         <v>12.13</v>
       </c>
-      <c r="L581" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -24802,9 +23057,6 @@
       </c>
       <c r="K582" t="n">
         <v>53.35</v>
-      </c>
-      <c r="L582" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -24843,9 +23095,6 @@
       <c r="K583" t="n">
         <v>12.57</v>
       </c>
-      <c r="L583" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -24883,9 +23132,6 @@
       <c r="K584" t="n">
         <v>90.39</v>
       </c>
-      <c r="L584" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -24923,9 +23169,6 @@
       <c r="K585" t="n">
         <v>126.77</v>
       </c>
-      <c r="L585" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -24967,9 +23210,6 @@
       <c r="K586" t="n">
         <v>42.99</v>
       </c>
-      <c r="L586" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -25011,9 +23251,6 @@
       <c r="K587" t="n">
         <v>203.93</v>
       </c>
-      <c r="L587" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -25054,9 +23291,6 @@
       </c>
       <c r="K588" t="n">
         <v>11.02</v>
-      </c>
-      <c r="L588" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -25095,9 +23329,6 @@
       <c r="K589" t="n">
         <v>13.01</v>
       </c>
-      <c r="L589" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -25139,9 +23370,6 @@
       <c r="K590" t="n">
         <v>72.75</v>
       </c>
-      <c r="L590" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -25183,9 +23411,6 @@
       <c r="K591" t="n">
         <v>2.2</v>
       </c>
-      <c r="L591" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -25227,9 +23452,6 @@
       <c r="K592" t="n">
         <v>23.15</v>
       </c>
-      <c r="L592" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -25271,9 +23493,6 @@
       <c r="K593" t="n">
         <v>72.75</v>
       </c>
-      <c r="L593" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -25314,9 +23533,6 @@
       </c>
       <c r="K594" t="n">
         <v>297.62</v>
-      </c>
-      <c r="L594" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -25355,9 +23571,6 @@
       <c r="K595" t="n">
         <v>69.67</v>
       </c>
-      <c r="L595" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -25399,9 +23612,6 @@
       <c r="K596" t="n">
         <v>1.32</v>
       </c>
-      <c r="L596" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -25443,9 +23653,6 @@
       <c r="K597" t="n">
         <v>31.53</v>
       </c>
-      <c r="L597" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -25487,9 +23694,6 @@
       <c r="K598" t="n">
         <v>41.45</v>
       </c>
-      <c r="L598" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -25530,9 +23734,6 @@
       </c>
       <c r="K599" t="n">
         <v>242.51</v>
-      </c>
-      <c r="L599" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -25571,9 +23772,6 @@
       <c r="K600" t="n">
         <v>46.3</v>
       </c>
-      <c r="L600" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -25611,9 +23809,6 @@
       <c r="K601" t="n">
         <v>112.44</v>
       </c>
-      <c r="L601" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -25651,9 +23846,6 @@
       <c r="K602" t="n">
         <v>178.57</v>
       </c>
-      <c r="L602" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -25691,9 +23883,6 @@
       <c r="K603" t="n">
         <v>0.66</v>
       </c>
-      <c r="L603" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -25731,9 +23920,6 @@
       <c r="K604" t="n">
         <v>48.5</v>
       </c>
-      <c r="L604" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -25771,9 +23957,6 @@
       <c r="K605" t="n">
         <v>177.47</v>
       </c>
-      <c r="L605" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -25811,9 +23994,6 @@
       <c r="K606" t="n">
         <v>19.84</v>
       </c>
-      <c r="L606" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -25851,9 +24031,6 @@
       <c r="K607" t="n">
         <v>76.06</v>
       </c>
-      <c r="L607" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -25895,9 +24072,6 @@
       <c r="K608" t="n">
         <v>6.83</v>
       </c>
-      <c r="L608" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -25939,9 +24113,6 @@
       <c r="K609" t="n">
         <v>28.66</v>
       </c>
-      <c r="L609" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -25982,9 +24153,6 @@
       </c>
       <c r="K610" t="n">
         <v>75.62</v>
-      </c>
-      <c r="L610" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -26023,9 +24191,6 @@
       <c r="K611" t="n">
         <v>39.68</v>
       </c>
-      <c r="L611" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -26063,9 +24228,6 @@
       <c r="K612" t="n">
         <v>79.37</v>
       </c>
-      <c r="L612" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -26103,9 +24265,6 @@
       <c r="K613" t="n">
         <v>232.59</v>
       </c>
-      <c r="L613" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -26143,9 +24302,6 @@
       <c r="K614" t="n">
         <v>18.74</v>
       </c>
-      <c r="L614" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -26183,9 +24339,6 @@
       <c r="K615" t="n">
         <v>573.2</v>
       </c>
-      <c r="L615" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -26223,9 +24376,6 @@
       <c r="K616" t="n">
         <v>326.28</v>
       </c>
-      <c r="L616" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -26263,9 +24413,6 @@
       <c r="K617" t="n">
         <v>16.98</v>
       </c>
-      <c r="L617" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -26303,9 +24450,6 @@
       <c r="K618" t="n">
         <v>55.78</v>
       </c>
-      <c r="L618" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -26346,9 +24490,6 @@
       </c>
       <c r="K619" t="n">
         <v>24.25</v>
-      </c>
-      <c r="L619" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -26387,9 +24528,6 @@
       <c r="K620" t="n">
         <v>44.09</v>
       </c>
-      <c r="L620" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -26427,9 +24565,6 @@
       <c r="K621" t="n">
         <v>78.26000000000001</v>
       </c>
-      <c r="L621" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -26467,9 +24602,6 @@
       <c r="K622" t="n">
         <v>306.44</v>
       </c>
-      <c r="L622" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -26511,9 +24643,6 @@
       <c r="K623" t="n">
         <v>202.83</v>
       </c>
-      <c r="L623" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -26555,9 +24684,6 @@
       <c r="K624" t="n">
         <v>727.52</v>
       </c>
-      <c r="L624" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -26599,9 +24725,6 @@
       <c r="K625" t="n">
         <v>22.49</v>
       </c>
-      <c r="L625" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -26642,9 +24765,6 @@
       </c>
       <c r="K626" t="n">
         <v>154.32</v>
-      </c>
-      <c r="L626" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -26683,9 +24803,6 @@
       <c r="K627" t="n">
         <v>208.56</v>
       </c>
-      <c r="L627" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -26727,9 +24844,6 @@
       <c r="K628" t="n">
         <v>23.15</v>
       </c>
-      <c r="L628" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -26771,9 +24885,6 @@
       <c r="K629" t="n">
         <v>90.39</v>
       </c>
-      <c r="L629" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -26815,9 +24926,6 @@
       <c r="K630" t="n">
         <v>19.84</v>
       </c>
-      <c r="L630" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -26858,9 +24966,6 @@
       </c>
       <c r="K631" t="n">
         <v>87.08</v>
-      </c>
-      <c r="L631" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -26899,9 +25004,6 @@
       <c r="K632" t="n">
         <v>127.87</v>
       </c>
-      <c r="L632" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -26943,9 +25045,6 @@
       <c r="K633" t="n">
         <v>72.75</v>
       </c>
-      <c r="L633" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -26987,9 +25086,6 @@
       <c r="K634" t="n">
         <v>38.14</v>
       </c>
-      <c r="L634" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -27031,9 +25127,6 @@
       <c r="K635" t="n">
         <v>110.23</v>
       </c>
-      <c r="L635" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -27075,9 +25168,6 @@
       <c r="K636" t="n">
         <v>352.74</v>
       </c>
-      <c r="L636" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -27119,9 +25209,6 @@
       <c r="K637" t="n">
         <v>63.49</v>
       </c>
-      <c r="L637" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -27163,9 +25250,6 @@
       <c r="K638" t="n">
         <v>101.41</v>
       </c>
-      <c r="L638" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -27207,9 +25291,6 @@
       <c r="K639" t="n">
         <v>551.16</v>
       </c>
-      <c r="L639" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -27251,9 +25332,6 @@
       <c r="K640" t="n">
         <v>573.2</v>
       </c>
-      <c r="L640" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -27294,9 +25372,6 @@
       </c>
       <c r="K641" t="n">
         <v>440.92</v>
-      </c>
-      <c r="L641" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -27335,9 +25410,6 @@
       <c r="K642" t="n">
         <v>138.89</v>
       </c>
-      <c r="L642" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -27379,9 +25451,6 @@
       <c r="K643" t="n">
         <v>134.48</v>
       </c>
-      <c r="L643" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -27423,9 +25492,6 @@
       <c r="K644" t="n">
         <v>727.52</v>
       </c>
-      <c r="L644" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -27467,9 +25533,6 @@
       <c r="K645" t="n">
         <v>760.59</v>
       </c>
-      <c r="L645" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -27511,9 +25574,6 @@
       <c r="K646" t="n">
         <v>149.91</v>
       </c>
-      <c r="L646" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -27555,9 +25615,6 @@
       <c r="K647" t="n">
         <v>716.5</v>
       </c>
-      <c r="L647" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -27599,9 +25656,6 @@
       <c r="K648" t="n">
         <v>106.92</v>
       </c>
-      <c r="L648" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -27643,9 +25697,6 @@
       <c r="K649" t="n">
         <v>14.33</v>
       </c>
-      <c r="L649" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -27686,9 +25737,6 @@
       </c>
       <c r="K650" t="n">
         <v>181.88</v>
-      </c>
-      <c r="L650" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -27727,9 +25775,6 @@
       <c r="K651" t="n">
         <v>19.84</v>
       </c>
-      <c r="L651" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -27767,9 +25812,6 @@
       <c r="K652" t="n">
         <v>63.93</v>
       </c>
-      <c r="L652" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -27810,9 +25852,6 @@
       </c>
       <c r="K653" t="n">
         <v>198.42</v>
-      </c>
-      <c r="L653" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -27851,9 +25890,6 @@
       <c r="K654" t="n">
         <v>20.72</v>
       </c>
-      <c r="L654" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -27891,9 +25927,6 @@
       <c r="K655" t="n">
         <v>31.97</v>
       </c>
-      <c r="L655" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -27934,9 +25967,6 @@
       </c>
       <c r="K656" t="n">
         <v>85.98</v>
-      </c>
-      <c r="L656" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -27975,9 +26005,6 @@
       <c r="K657" t="n">
         <v>15.43</v>
       </c>
-      <c r="L657" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -28015,9 +26042,6 @@
       <c r="K658" t="n">
         <v>24.03</v>
       </c>
-      <c r="L658" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -28058,9 +26082,6 @@
       </c>
       <c r="K659" t="n">
         <v>88.18000000000001</v>
-      </c>
-      <c r="L659" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="660">
@@ -28099,9 +26120,6 @@
       <c r="K660" t="n">
         <v>11.02</v>
       </c>
-      <c r="L660" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -28143,9 +26161,6 @@
       <c r="K661" t="n">
         <v>93.48</v>
       </c>
-      <c r="L661" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -28187,9 +26202,6 @@
       <c r="K662" t="n">
         <v>3.75</v>
       </c>
-      <c r="L662" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -28231,9 +26243,6 @@
       <c r="K663" t="n">
         <v>35.27</v>
       </c>
-      <c r="L663" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -28274,9 +26283,6 @@
       </c>
       <c r="K664" t="n">
         <v>54.01</v>
-      </c>
-      <c r="L664" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -28315,9 +26321,6 @@
       <c r="K665" t="n">
         <v>5.51</v>
       </c>
-      <c r="L665" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -28355,9 +26358,6 @@
       <c r="K666" t="n">
         <v>18.52</v>
       </c>
-      <c r="L666" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -28399,9 +26399,6 @@
       <c r="K667" t="n">
         <v>37.48</v>
       </c>
-      <c r="L667" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -28443,9 +26440,6 @@
       <c r="K668" t="n">
         <v>29.76</v>
       </c>
-      <c r="L668" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -28486,9 +26480,6 @@
       </c>
       <c r="K669" t="n">
         <v>179.68</v>
-      </c>
-      <c r="L669" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -28527,9 +26518,6 @@
       <c r="K670" t="n">
         <v>0.22</v>
       </c>
-      <c r="L670" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -28567,9 +26555,6 @@
       <c r="K671" t="n">
         <v>1.98</v>
       </c>
-      <c r="L671" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -28607,9 +26592,6 @@
       <c r="K672" t="n">
         <v>22.05</v>
       </c>
-      <c r="L672" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -28647,9 +26629,6 @@
       <c r="K673" t="n">
         <v>68.34</v>
       </c>
-      <c r="L673" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -28687,9 +26666,6 @@
       <c r="K674" t="n">
         <v>200.62</v>
       </c>
-      <c r="L674" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -28727,9 +26703,6 @@
       <c r="K675" t="n">
         <v>17.64</v>
       </c>
-      <c r="L675" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -28770,9 +26743,6 @@
       </c>
       <c r="K676" t="n">
         <v>299.83</v>
-      </c>
-      <c r="L676" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -28811,9 +26781,6 @@
       <c r="K677" t="n">
         <v>61.73</v>
       </c>
-      <c r="L677" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -28851,9 +26818,6 @@
       <c r="K678" t="n">
         <v>7.72</v>
       </c>
-      <c r="L678" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -28891,9 +26855,6 @@
       <c r="K679" t="n">
         <v>18.74</v>
       </c>
-      <c r="L679" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -28935,9 +26896,6 @@
       <c r="K680" t="n">
         <v>4.41</v>
       </c>
-      <c r="L680" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -28979,9 +26937,6 @@
       <c r="K681" t="n">
         <v>9.92</v>
       </c>
-      <c r="L681" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -29022,9 +26977,6 @@
       </c>
       <c r="K682" t="n">
         <v>116.84</v>
-      </c>
-      <c r="L682" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -29063,9 +27015,6 @@
       <c r="K683" t="n">
         <v>1.1</v>
       </c>
-      <c r="L683" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -29103,9 +27052,6 @@
       <c r="K684" t="n">
         <v>34.17</v>
       </c>
-      <c r="L684" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -29143,9 +27089,6 @@
       <c r="K685" t="n">
         <v>7.72</v>
       </c>
-      <c r="L685" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -29183,9 +27126,6 @@
       <c r="K686" t="n">
         <v>11.02</v>
       </c>
-      <c r="L686" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -29227,9 +27167,6 @@
       <c r="K687" t="n">
         <v>7.72</v>
       </c>
-      <c r="L687" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -29271,9 +27208,6 @@
       <c r="K688" t="n">
         <v>103.62</v>
       </c>
-      <c r="L688" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -29315,9 +27249,6 @@
       <c r="K689" t="n">
         <v>68.34</v>
       </c>
-      <c r="L689" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -29359,9 +27290,6 @@
       <c r="K690" t="n">
         <v>211.64</v>
       </c>
-      <c r="L690" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -29403,9 +27331,6 @@
       <c r="K691" t="n">
         <v>16.09</v>
       </c>
-      <c r="L691" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -29446,9 +27371,6 @@
       </c>
       <c r="K692" t="n">
         <v>179.68</v>
-      </c>
-      <c r="L692" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -29487,9 +27409,6 @@
       <c r="K693" t="n">
         <v>18.3</v>
       </c>
-      <c r="L693" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -29527,9 +27446,6 @@
       <c r="K694" t="n">
         <v>77.81999999999999</v>
       </c>
-      <c r="L694" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -29571,9 +27487,6 @@
       <c r="K695" t="n">
         <v>13.23</v>
       </c>
-      <c r="L695" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -29615,9 +27528,6 @@
       <c r="K696" t="n">
         <v>46.3</v>
       </c>
-      <c r="L696" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -29659,9 +27569,6 @@
       <c r="K697" t="n">
         <v>57.32</v>
       </c>
-      <c r="L697" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -29703,9 +27610,6 @@
       <c r="K698" t="n">
         <v>595.25</v>
       </c>
-      <c r="L698" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -29747,9 +27651,6 @@
       <c r="K699" t="n">
         <v>55.56</v>
       </c>
-      <c r="L699" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -29790,9 +27691,6 @@
       </c>
       <c r="K700" t="n">
         <v>496.04</v>
-      </c>
-      <c r="L700" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="701">
@@ -29831,9 +27729,6 @@
       <c r="K701" t="n">
         <v>51.81</v>
       </c>
-      <c r="L701" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -29875,9 +27770,6 @@
       <c r="K702" t="n">
         <v>47.4</v>
       </c>
-      <c r="L702" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -29919,9 +27811,6 @@
       <c r="K703" t="n">
         <v>4.85</v>
       </c>
-      <c r="L703" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -29962,9 +27851,6 @@
       </c>
       <c r="K704" t="n">
         <v>12.57</v>
-      </c>
-      <c r="L704" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="705">
@@ -30003,9 +27889,6 @@
       <c r="K705" t="n">
         <v>6.17</v>
       </c>
-      <c r="L705" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -30043,9 +27926,6 @@
       <c r="K706" t="n">
         <v>38.58</v>
       </c>
-      <c r="L706" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -30083,9 +27963,6 @@
       <c r="K707" t="n">
         <v>331.8</v>
       </c>
-      <c r="L707" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -30127,9 +28004,6 @@
       <c r="K708" t="n">
         <v>6.61</v>
       </c>
-      <c r="L708" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -30171,9 +28045,6 @@
       <c r="K709" t="n">
         <v>15.43</v>
       </c>
-      <c r="L709" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -30215,9 +28086,6 @@
       <c r="K710" t="n">
         <v>156.53</v>
       </c>
-      <c r="L710" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -30259,9 +28127,6 @@
       <c r="K711" t="n">
         <v>11.02</v>
       </c>
-      <c r="L711" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -30302,9 +28167,6 @@
       </c>
       <c r="K712" t="n">
         <v>27.56</v>
-      </c>
-      <c r="L712" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -30343,9 +28205,6 @@
       <c r="K713" t="n">
         <v>219.36</v>
       </c>
-      <c r="L713" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -30383,9 +28242,6 @@
       <c r="K714" t="n">
         <v>1113.33</v>
       </c>
-      <c r="L714" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -30427,9 +28283,6 @@
       <c r="K715" t="n">
         <v>17.64</v>
       </c>
-      <c r="L715" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -30470,9 +28323,6 @@
       </c>
       <c r="K716" t="n">
         <v>187.39</v>
-      </c>
-      <c r="L716" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="717">
@@ -30511,9 +28361,6 @@
       <c r="K717" t="n">
         <v>473.99</v>
       </c>
-      <c r="L717" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -30555,9 +28402,6 @@
       <c r="K718" t="n">
         <v>447.54</v>
       </c>
-      <c r="L718" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -30599,9 +28443,6 @@
       <c r="K719" t="n">
         <v>672.41</v>
       </c>
-      <c r="L719" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -30643,9 +28484,6 @@
       <c r="K720" t="n">
         <v>19.4</v>
       </c>
-      <c r="L720" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -30687,9 +28525,6 @@
       <c r="K721" t="n">
         <v>19.84</v>
       </c>
-      <c r="L721" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -30731,9 +28566,6 @@
       <c r="K722" t="n">
         <v>429.9</v>
       </c>
-      <c r="L722" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -30775,9 +28607,6 @@
       <c r="K723" t="n">
         <v>3.31</v>
       </c>
-      <c r="L723" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -30819,9 +28648,6 @@
       <c r="K724" t="n">
         <v>35.27</v>
       </c>
-      <c r="L724" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -30862,9 +28688,6 @@
       </c>
       <c r="K725" t="n">
         <v>80.69</v>
-      </c>
-      <c r="L725" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="726">
@@ -30903,9 +28726,6 @@
       <c r="K726" t="n">
         <v>9.48</v>
       </c>
-      <c r="L726" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -30943,9 +28763,6 @@
       <c r="K727" t="n">
         <v>55.12</v>
       </c>
-      <c r="L727" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -30986,9 +28803,6 @@
       </c>
       <c r="K728" t="n">
         <v>182.98</v>
-      </c>
-      <c r="L728" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -31027,9 +28841,6 @@
       <c r="K729" t="n">
         <v>16.53</v>
       </c>
-      <c r="L729" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -31067,9 +28878,6 @@
       <c r="K730" t="n">
         <v>38.58</v>
       </c>
-      <c r="L730" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -31111,9 +28919,6 @@
       <c r="K731" t="n">
         <v>97</v>
       </c>
-      <c r="L731" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -31155,9 +28960,6 @@
       <c r="K732" t="n">
         <v>2.65</v>
       </c>
-      <c r="L732" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -31199,9 +29001,6 @@
       <c r="K733" t="n">
         <v>32.63</v>
       </c>
-      <c r="L733" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -31242,9 +29041,6 @@
       </c>
       <c r="K734" t="n">
         <v>57.32</v>
-      </c>
-      <c r="L734" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="735">
@@ -31283,9 +29079,6 @@
       <c r="K735" t="n">
         <v>13.23</v>
       </c>
-      <c r="L735" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -31323,9 +29116,6 @@
       <c r="K736" t="n">
         <v>31.31</v>
       </c>
-      <c r="L736" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -31363,9 +29153,6 @@
       <c r="K737" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="L737" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -31407,9 +29194,6 @@
       <c r="K738" t="n">
         <v>23.15</v>
       </c>
-      <c r="L738" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -31450,9 +29234,6 @@
       </c>
       <c r="K739" t="n">
         <v>99.20999999999999</v>
-      </c>
-      <c r="L739" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -31491,9 +29272,6 @@
       <c r="K740" t="n">
         <v>15.43</v>
       </c>
-      <c r="L740" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -31535,9 +29313,6 @@
       <c r="K741" t="n">
         <v>396.83</v>
       </c>
-      <c r="L741" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -31579,9 +29354,6 @@
       <c r="K742" t="n">
         <v>7.5</v>
       </c>
-      <c r="L742" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -31623,9 +29395,6 @@
       <c r="K743" t="n">
         <v>0.44</v>
       </c>
-      <c r="L743" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -31666,9 +29435,6 @@
       </c>
       <c r="K744" t="n">
         <v>1.1</v>
-      </c>
-      <c r="L744" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -31707,9 +29473,6 @@
       <c r="K745" t="n">
         <v>20.28</v>
       </c>
-      <c r="L745" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -31747,9 +29510,6 @@
       <c r="K746" t="n">
         <v>55.12</v>
       </c>
-      <c r="L746" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -31787,9 +29547,6 @@
       <c r="K747" t="n">
         <v>0.66</v>
       </c>
-      <c r="L747" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -31831,9 +29588,6 @@
       <c r="K748" t="n">
         <v>17.64</v>
       </c>
-      <c r="L748" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -31874,9 +29628,6 @@
       </c>
       <c r="K749" t="n">
         <v>31.97</v>
-      </c>
-      <c r="L749" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="750">
@@ -31915,9 +29666,6 @@
       <c r="K750" t="n">
         <v>242.51</v>
       </c>
-      <c r="L750" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -31955,9 +29703,6 @@
       <c r="K751" t="n">
         <v>2028.25</v>
       </c>
-      <c r="L751" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -31999,9 +29744,6 @@
       <c r="K752" t="n">
         <v>8.82</v>
       </c>
-      <c r="L752" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -32042,9 +29784,6 @@
       </c>
       <c r="K753" t="n">
         <v>180.78</v>
-      </c>
-      <c r="L753" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -32083,9 +29822,6 @@
       <c r="K754" t="n">
         <v>3.31</v>
       </c>
-      <c r="L754" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -32123,9 +29859,6 @@
       <c r="K755" t="n">
         <v>40.79</v>
       </c>
-      <c r="L755" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -32167,9 +29900,6 @@
       <c r="K756" t="n">
         <v>3.31</v>
       </c>
-      <c r="L756" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -32211,9 +29941,6 @@
       <c r="K757" t="n">
         <v>25.35</v>
       </c>
-      <c r="L757" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -32255,9 +29982,6 @@
       <c r="K758" t="n">
         <v>10.58</v>
       </c>
-      <c r="L758" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -32299,9 +30023,6 @@
       <c r="K759" t="n">
         <v>48.94</v>
       </c>
-      <c r="L759" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -32343,9 +30064,6 @@
       <c r="K760" t="n">
         <v>14.99</v>
       </c>
-      <c r="L760" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -32386,9 +30104,6 @@
       </c>
       <c r="K761" t="n">
         <v>297.62</v>
-      </c>
-      <c r="L761" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -32427,9 +30142,6 @@
       <c r="K762" t="n">
         <v>7.05</v>
       </c>
-      <c r="L762" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -32467,9 +30179,6 @@
       <c r="K763" t="n">
         <v>18.08</v>
       </c>
-      <c r="L763" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -32507,9 +30216,6 @@
       <c r="K764" t="n">
         <v>47.18</v>
       </c>
-      <c r="L764" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -32547,9 +30253,6 @@
       <c r="K765" t="n">
         <v>0.66</v>
       </c>
-      <c r="L765" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -32590,9 +30293,6 @@
       </c>
       <c r="K766" t="n">
         <v>167.55</v>
-      </c>
-      <c r="L766" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -32631,9 +30331,6 @@
       <c r="K767" t="n">
         <v>182.54</v>
       </c>
-      <c r="L767" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -32675,9 +30372,6 @@
       <c r="K768" t="n">
         <v>26.46</v>
       </c>
-      <c r="L768" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -32719,9 +30413,6 @@
       <c r="K769" t="n">
         <v>238.1</v>
       </c>
-      <c r="L769" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -32763,9 +30454,6 @@
       <c r="K770" t="n">
         <v>154.32</v>
       </c>
-      <c r="L770" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -32806,9 +30494,6 @@
       </c>
       <c r="K771" t="n">
         <v>551.16</v>
-      </c>
-      <c r="L771" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="772">
@@ -32847,9 +30532,6 @@
       <c r="K772" t="n">
         <v>2.65</v>
       </c>
-      <c r="L772" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -32887,9 +30569,6 @@
       <c r="K773" t="n">
         <v>265.66</v>
       </c>
-      <c r="L773" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -32927,9 +30606,6 @@
       <c r="K774" t="n">
         <v>221.56</v>
       </c>
-      <c r="L774" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -32970,9 +30646,6 @@
       </c>
       <c r="K775" t="n">
         <v>88.18000000000001</v>
-      </c>
-      <c r="L775" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -33011,9 +30684,6 @@
       <c r="K776" t="n">
         <v>43.87</v>
       </c>
-      <c r="L776" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -33055,9 +30725,6 @@
       <c r="K777" t="n">
         <v>467.38</v>
       </c>
-      <c r="L777" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -33099,9 +30766,6 @@
       <c r="K778" t="n">
         <v>7.28</v>
       </c>
-      <c r="L778" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -33143,9 +30807,6 @@
       <c r="K779" t="n">
         <v>1.54</v>
       </c>
-      <c r="L779" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -33187,9 +30848,6 @@
       <c r="K780" t="n">
         <v>41.89</v>
       </c>
-      <c r="L780" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -33231,9 +30889,6 @@
       <c r="K781" t="n">
         <v>407.85</v>
       </c>
-      <c r="L781" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -33274,9 +30929,6 @@
       </c>
       <c r="K782" t="n">
         <v>462.97</v>
-      </c>
-      <c r="L782" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -33315,9 +30967,6 @@
       <c r="K783" t="n">
         <v>65.48</v>
       </c>
-      <c r="L783" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -33359,9 +31008,6 @@
       <c r="K784" t="n">
         <v>103.62</v>
       </c>
-      <c r="L784" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -33403,9 +31049,6 @@
       <c r="K785" t="n">
         <v>172.4</v>
       </c>
-      <c r="L785" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -33447,9 +31090,6 @@
       <c r="K786" t="n">
         <v>45.19</v>
       </c>
-      <c r="L786" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -33491,9 +31131,6 @@
       <c r="K787" t="n">
         <v>41.01</v>
       </c>
-      <c r="L787" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -33535,9 +31172,6 @@
       <c r="K788" t="n">
         <v>100.31</v>
       </c>
-      <c r="L788" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -33578,9 +31212,6 @@
       </c>
       <c r="K789" t="n">
         <v>46.74</v>
-      </c>
-      <c r="L789" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="790">
@@ -33619,9 +31250,6 @@
       <c r="K790" t="n">
         <v>0.22</v>
       </c>
-      <c r="L790" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -33659,9 +31287,6 @@
       <c r="K791" t="n">
         <v>2204.4</v>
       </c>
-      <c r="L791" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
@@ -33703,9 +31328,6 @@
       <c r="K792" t="n">
         <v>507.06</v>
       </c>
-      <c r="L792" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -33747,9 +31369,6 @@
       <c r="K793" t="n">
         <v>264.55</v>
       </c>
-      <c r="L793" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -33791,9 +31410,6 @@
       <c r="K794" t="n">
         <v>122.36</v>
       </c>
-      <c r="L794" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -33835,9 +31451,6 @@
       <c r="K795" t="n">
         <v>735.46</v>
       </c>
-      <c r="L795" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -33878,9 +31491,6 @@
       </c>
       <c r="K796" t="n">
         <v>55.12</v>
-      </c>
-      <c r="L796" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -33919,9 +31529,6 @@
       <c r="K797" t="n">
         <v>220.46</v>
       </c>
-      <c r="L797" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -33963,9 +31570,6 @@
       <c r="K798" t="n">
         <v>2204.4</v>
       </c>
-      <c r="L798" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
@@ -34007,9 +31611,6 @@
       <c r="K799" t="n">
         <v>0.22</v>
       </c>
-      <c r="L799" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -34050,9 +31651,6 @@
       </c>
       <c r="K800" t="n">
         <v>1957.7</v>
-      </c>
-      <c r="L800" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -34091,9 +31689,6 @@
       <c r="K801" t="n">
         <v>507.06</v>
       </c>
-      <c r="L801" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
@@ -34135,9 +31730,6 @@
       <c r="K802" t="n">
         <v>177.47</v>
       </c>
-      <c r="L802" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
@@ -34178,9 +31770,6 @@
       </c>
       <c r="K803" t="n">
         <v>48.94</v>
-      </c>
-      <c r="L803" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -34219,9 +31808,6 @@
       <c r="K804" t="n">
         <v>3.97</v>
       </c>
-      <c r="L804" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
@@ -34263,9 +31849,6 @@
       <c r="K805" t="n">
         <v>330.69</v>
       </c>
-      <c r="L805" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -34307,9 +31890,6 @@
       <c r="K806" t="n">
         <v>1807.79</v>
       </c>
-      <c r="L806" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
@@ -34350,9 +31930,6 @@
       </c>
       <c r="K807" t="n">
         <v>28.66</v>
-      </c>
-      <c r="L807" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="808">
@@ -34391,9 +31968,6 @@
       <c r="K808" t="n">
         <v>98.11</v>
       </c>
-      <c r="L808" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
@@ -34431,9 +32005,6 @@
       <c r="K809" t="n">
         <v>17.64</v>
       </c>
-      <c r="L809" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
@@ -34471,9 +32042,6 @@
       <c r="K810" t="n">
         <v>1763.7</v>
       </c>
-      <c r="L810" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
@@ -34511,9 +32079,6 @@
       <c r="K811" t="n">
         <v>11.02</v>
       </c>
-      <c r="L811" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
@@ -34551,9 +32116,6 @@
       <c r="K812" t="n">
         <v>30.86</v>
       </c>
-      <c r="L812" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
@@ -34591,9 +32153,6 @@
       <c r="K813" t="n">
         <v>198.42</v>
       </c>
-      <c r="L813" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
@@ -34631,9 +32190,6 @@
       <c r="K814" t="n">
         <v>9.92</v>
       </c>
-      <c r="L814" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
@@ -34671,9 +32227,6 @@
       <c r="K815" t="n">
         <v>19.84</v>
       </c>
-      <c r="L815" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
@@ -34711,9 +32264,6 @@
       <c r="K816" t="n">
         <v>72.75</v>
       </c>
-      <c r="L816" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
@@ -34751,9 +32301,6 @@
       <c r="K817" t="n">
         <v>8.82</v>
       </c>
-      <c r="L817" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
@@ -34791,9 +32338,6 @@
       <c r="K818" t="n">
         <v>25.35</v>
       </c>
-      <c r="L818" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
@@ -34831,9 +32375,6 @@
       <c r="K819" t="n">
         <v>99.65000000000001</v>
       </c>
-      <c r="L819" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
@@ -34871,9 +32412,6 @@
       <c r="K820" t="n">
         <v>5.51</v>
       </c>
-      <c r="L820" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
@@ -34911,9 +32449,6 @@
       <c r="K821" t="n">
         <v>13.23</v>
       </c>
-      <c r="L821" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
@@ -34951,9 +32486,6 @@
       <c r="K822" t="n">
         <v>3.97</v>
       </c>
-      <c r="L822" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
@@ -34991,9 +32523,6 @@
       <c r="K823" t="n">
         <v>35.27</v>
       </c>
-      <c r="L823" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
@@ -35034,9 +32563,6 @@
       </c>
       <c r="K824" t="n">
         <v>165.35</v>
-      </c>
-      <c r="L824" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="825">
@@ -35075,9 +32601,6 @@
       <c r="K825" t="n">
         <v>17.64</v>
       </c>
-      <c r="L825" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
@@ -35119,9 +32642,6 @@
       <c r="K826" t="n">
         <v>42.99</v>
       </c>
-      <c r="L826" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
@@ -35162,9 +32682,6 @@
       </c>
       <c r="K827" t="n">
         <v>89.95</v>
-      </c>
-      <c r="L827" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -35203,9 +32720,6 @@
       <c r="K828" t="n">
         <v>19.62</v>
       </c>
-      <c r="L828" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
@@ -35243,9 +32757,6 @@
       <c r="K829" t="n">
         <v>43.87</v>
       </c>
-      <c r="L829" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
@@ -35283,9 +32794,6 @@
       <c r="K830" t="n">
         <v>4.85</v>
       </c>
-      <c r="L830" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
@@ -35323,9 +32831,6 @@
       <c r="K831" t="n">
         <v>5.51</v>
       </c>
-      <c r="L831" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
@@ -35363,9 +32868,6 @@
       <c r="K832" t="n">
         <v>13.23</v>
       </c>
-      <c r="L832" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
@@ -35403,9 +32905,6 @@
       <c r="K833" t="n">
         <v>94.8</v>
       </c>
-      <c r="L833" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
@@ -35443,9 +32942,6 @@
       <c r="K834" t="n">
         <v>18.74</v>
       </c>
-      <c r="L834" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
@@ -35486,9 +32982,6 @@
       </c>
       <c r="K835" t="n">
         <v>254.63</v>
-      </c>
-      <c r="L835" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="836">
@@ -35527,9 +33020,6 @@
       <c r="K836" t="n">
         <v>29.76</v>
       </c>
-      <c r="L836" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
@@ -35567,9 +33057,6 @@
       <c r="K837" t="n">
         <v>74.95999999999999</v>
       </c>
-      <c r="L837" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
@@ -35607,9 +33094,6 @@
       <c r="K838" t="n">
         <v>26.46</v>
       </c>
-      <c r="L838" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
@@ -35651,9 +33135,6 @@
       <c r="K839" t="n">
         <v>171.96</v>
       </c>
-      <c r="L839" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
@@ -35695,9 +33176,6 @@
       <c r="K840" t="n">
         <v>684.53</v>
       </c>
-      <c r="L840" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
@@ -35739,9 +33217,6 @@
       <c r="K841" t="n">
         <v>1.1</v>
       </c>
-      <c r="L841" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
@@ -35783,9 +33258,6 @@
       <c r="K842" t="n">
         <v>2.2</v>
       </c>
-      <c r="L842" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
@@ -35826,9 +33298,6 @@
       </c>
       <c r="K843" t="n">
         <v>28.66</v>
-      </c>
-      <c r="L843" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="844">
@@ -35867,9 +33336,6 @@
       <c r="K844" t="n">
         <v>16.76</v>
       </c>
-      <c r="L844" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
@@ -35907,9 +33373,6 @@
       <c r="K845" t="n">
         <v>144.4</v>
       </c>
-      <c r="L845" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
@@ -35950,9 +33413,6 @@
       </c>
       <c r="K846" t="n">
         <v>39.68</v>
-      </c>
-      <c r="L846" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -35991,9 +33451,6 @@
       <c r="K847" t="n">
         <v>2.2</v>
       </c>
-      <c r="L847" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
@@ -36031,9 +33488,6 @@
       <c r="K848" t="n">
         <v>66.14</v>
       </c>
-      <c r="L848" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
@@ -36075,9 +33529,6 @@
       <c r="K849" t="n">
         <v>24.25</v>
       </c>
-      <c r="L849" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
@@ -36119,9 +33570,6 @@
       <c r="K850" t="n">
         <v>88.18000000000001</v>
       </c>
-      <c r="L850" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
@@ -36163,9 +33611,6 @@
       <c r="K851" t="n">
         <v>2.2</v>
       </c>
-      <c r="L851" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
@@ -36206,9 +33651,6 @@
       </c>
       <c r="K852" t="n">
         <v>264.55</v>
-      </c>
-      <c r="L852" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="853">
@@ -36247,9 +33689,6 @@
       <c r="K853" t="n">
         <v>8.82</v>
       </c>
-      <c r="L853" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
@@ -36287,9 +33726,6 @@
       <c r="K854" t="n">
         <v>85.98</v>
       </c>
-      <c r="L854" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
@@ -36327,9 +33763,6 @@
       <c r="K855" t="n">
         <v>0.44</v>
       </c>
-      <c r="L855" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
@@ -36367,9 +33800,6 @@
       <c r="K856" t="n">
         <v>0.88</v>
       </c>
-      <c r="L856" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
@@ -36407,9 +33837,6 @@
       <c r="K857" t="n">
         <v>7.5</v>
       </c>
-      <c r="L857" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
@@ -36447,9 +33874,6 @@
       <c r="K858" t="n">
         <v>10.58</v>
       </c>
-      <c r="L858" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
@@ -36491,9 +33915,6 @@
       <c r="K859" t="n">
         <v>11.24</v>
       </c>
-      <c r="L859" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
@@ -36535,9 +33956,6 @@
       <c r="K860" t="n">
         <v>12.13</v>
       </c>
-      <c r="L860" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
@@ -36579,9 +33997,6 @@
       <c r="K861" t="n">
         <v>27.56</v>
       </c>
-      <c r="L861" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
@@ -36623,9 +34038,6 @@
       <c r="K862" t="n">
         <v>134.48</v>
       </c>
-      <c r="L862" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
@@ -36666,9 +34078,6 @@
       </c>
       <c r="K863" t="n">
         <v>101.41</v>
-      </c>
-      <c r="L863" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -36707,9 +34116,6 @@
       <c r="K864" t="n">
         <v>61.73</v>
       </c>
-      <c r="L864" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
@@ -36747,9 +34153,6 @@
       <c r="K865" t="n">
         <v>0.88</v>
       </c>
-      <c r="L865" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
@@ -36787,9 +34190,6 @@
       <c r="K866" t="n">
         <v>257.94</v>
       </c>
-      <c r="L866" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
@@ -36831,9 +34231,6 @@
       <c r="K867" t="n">
         <v>128.31</v>
       </c>
-      <c r="L867" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
@@ -36874,9 +34271,6 @@
       </c>
       <c r="K868" t="n">
         <v>146.83</v>
-      </c>
-      <c r="L868" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="869">
@@ -36915,9 +34309,6 @@
       <c r="K869" t="n">
         <v>0.66</v>
       </c>
-      <c r="L869" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
@@ -36955,9 +34346,6 @@
       <c r="K870" t="n">
         <v>1.1</v>
       </c>
-      <c r="L870" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
@@ -36995,9 +34383,6 @@
       <c r="K871" t="n">
         <v>136.69</v>
       </c>
-      <c r="L871" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
@@ -37035,9 +34420,6 @@
       <c r="K872" t="n">
         <v>2.2</v>
       </c>
-      <c r="L872" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
@@ -37079,9 +34461,6 @@
       <c r="K873" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="L873" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
@@ -37122,9 +34501,6 @@
       </c>
       <c r="K874" t="n">
         <v>92.59</v>
-      </c>
-      <c r="L874" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="875">
@@ -37163,9 +34539,6 @@
       <c r="K875" t="n">
         <v>1146.4</v>
       </c>
-      <c r="L875" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
@@ -37203,9 +34576,6 @@
       <c r="K876" t="n">
         <v>196.21</v>
       </c>
-      <c r="L876" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
@@ -37247,9 +34617,6 @@
       <c r="K877" t="n">
         <v>61.73</v>
       </c>
-      <c r="L877" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
@@ -37290,9 +34657,6 @@
       </c>
       <c r="K878" t="n">
         <v>6.61</v>
-      </c>
-      <c r="L878" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="879">
@@ -37331,9 +34695,6 @@
       <c r="K879" t="n">
         <v>220.46</v>
       </c>
-      <c r="L879" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
@@ -37371,9 +34732,6 @@
       <c r="K880" t="n">
         <v>1433</v>
       </c>
-      <c r="L880" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
@@ -37415,9 +34773,6 @@
       <c r="K881" t="n">
         <v>418.88</v>
       </c>
-      <c r="L881" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
@@ -37459,9 +34814,6 @@
       <c r="K882" t="n">
         <v>330.69</v>
       </c>
-      <c r="L882" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
@@ -37503,9 +34855,6 @@
       <c r="K883" t="n">
         <v>473.99</v>
       </c>
-      <c r="L883" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
@@ -37547,9 +34896,6 @@
       <c r="K884" t="n">
         <v>385.81</v>
       </c>
-      <c r="L884" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
@@ -37591,9 +34937,6 @@
       <c r="K885" t="n">
         <v>88.18000000000001</v>
       </c>
-      <c r="L885" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
@@ -37635,9 +34978,6 @@
       <c r="K886" t="n">
         <v>4.41</v>
       </c>
-      <c r="L886" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
@@ -37679,9 +35019,6 @@
       <c r="K887" t="n">
         <v>24.25</v>
       </c>
-      <c r="L887" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
@@ -37722,9 +35059,6 @@
       </c>
       <c r="K888" t="n">
         <v>110.23</v>
-      </c>
-      <c r="L888" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -37763,9 +35097,6 @@
       <c r="K889" t="n">
         <v>242.51</v>
       </c>
-      <c r="L889" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
@@ -37803,9 +35134,6 @@
       <c r="K890" t="n">
         <v>462.97</v>
       </c>
-      <c r="L890" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
@@ -37846,9 +35174,6 @@
       </c>
       <c r="K891" t="n">
         <v>2094.39</v>
-      </c>
-      <c r="L891" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="892">
@@ -37887,9 +35212,6 @@
       <c r="K892" t="n">
         <v>26.46</v>
       </c>
-      <c r="L892" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
@@ -37931,9 +35253,6 @@
       <c r="K893" t="n">
         <v>231.49</v>
       </c>
-      <c r="L893" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
@@ -37974,9 +35293,6 @@
       </c>
       <c r="K894" t="n">
         <v>154.32</v>
-      </c>
-      <c r="L894" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="895">
@@ -38015,9 +35331,6 @@
       <c r="K895" t="n">
         <v>319.67</v>
       </c>
-      <c r="L895" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
@@ -38055,9 +35368,6 @@
       <c r="K896" t="n">
         <v>440.92</v>
       </c>
-      <c r="L896" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
@@ -38095,9 +35405,6 @@
       <c r="K897" t="n">
         <v>1763.7</v>
       </c>
-      <c r="L897" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
@@ -38135,9 +35442,6 @@
       <c r="K898" t="n">
         <v>98.11</v>
       </c>
-      <c r="L898" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
@@ -38178,9 +35482,6 @@
       </c>
       <c r="K899" t="n">
         <v>16.98</v>
-      </c>
-      <c r="L899" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
